--- a/raw_data/ATOM-USD_4h_process.xlsx
+++ b/raw_data/ATOM-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>12.05820941925049</v>
+        <v>10.1781816482544</v>
       </c>
       <c r="C2">
-        <v>12.07936382293701</v>
+        <v>10.26685237884522</v>
       </c>
       <c r="D2">
-        <v>11.89650821685791</v>
+        <v>9.914863586425779</v>
       </c>
       <c r="E2">
-        <v>11.9671459197998</v>
+        <v>9.988465309143066</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>12772032</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>11.96682739257812</v>
+        <v>9.987642288208008</v>
       </c>
       <c r="C3">
-        <v>12.21408271789551</v>
+        <v>10.08956813812256</v>
       </c>
       <c r="D3">
-        <v>11.88301181793213</v>
+        <v>9.908178329467772</v>
       </c>
       <c r="E3">
-        <v>11.96571636199951</v>
+        <v>9.932072639465332</v>
       </c>
       <c r="F3">
-        <v>8241584</v>
+        <v>6189280</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>11.96689796447754</v>
+        <v>9.933535575866699</v>
       </c>
       <c r="C4">
-        <v>12.10141468048096</v>
+        <v>10.01680755615234</v>
       </c>
       <c r="D4">
-        <v>11.55655574798584</v>
+        <v>9.82440185546875</v>
       </c>
       <c r="E4">
-        <v>11.67082977294922</v>
+        <v>10.01680755615234</v>
       </c>
       <c r="F4">
-        <v>23285248</v>
+        <v>1811328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>11.67179584503174</v>
+        <v>10.01649570465088</v>
       </c>
       <c r="C5">
-        <v>11.95827960968018</v>
+        <v>10.07083511352539</v>
       </c>
       <c r="D5">
-        <v>11.64982414245606</v>
+        <v>9.946075439453123</v>
       </c>
       <c r="E5">
-        <v>11.92355251312256</v>
+        <v>9.946075439453123</v>
       </c>
       <c r="F5">
-        <v>4883168</v>
+        <v>5954496</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>11.92302989959717</v>
+        <v>9.946342468261721</v>
       </c>
       <c r="C6">
-        <v>11.92302989959717</v>
+        <v>10.05189037322998</v>
       </c>
       <c r="D6">
-        <v>11.35971641540527</v>
+        <v>9.899638175964355</v>
       </c>
       <c r="E6">
-        <v>11.41953086853027</v>
+        <v>10.0241870880127</v>
       </c>
       <c r="F6">
-        <v>16802224</v>
+        <v>2962368</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>11.41902160644531</v>
+        <v>10.02384757995606</v>
       </c>
       <c r="C7">
-        <v>11.5158224105835</v>
+        <v>10.27610874176025</v>
       </c>
       <c r="D7">
-        <v>11.356520652771</v>
+        <v>10.01313877105713</v>
       </c>
       <c r="E7">
-        <v>11.5158224105835</v>
+        <v>10.26195526123047</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3491936</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>11.51510143280029</v>
+        <v>10.26309299468994</v>
       </c>
       <c r="C8">
-        <v>11.51510143280029</v>
+        <v>10.34388637542725</v>
       </c>
       <c r="D8">
-        <v>11.34768295288086</v>
+        <v>10.21112155914307</v>
       </c>
       <c r="E8">
-        <v>11.42954635620117</v>
+        <v>10.28330707550049</v>
       </c>
       <c r="F8">
-        <v>364256</v>
+        <v>3005824</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>11.42831134796143</v>
+        <v>10.28118133544922</v>
       </c>
       <c r="C9">
-        <v>11.46024703979492</v>
+        <v>10.32830333709717</v>
       </c>
       <c r="D9">
-        <v>11.13754177093506</v>
+        <v>10.15017032623291</v>
       </c>
       <c r="E9">
-        <v>11.37971305847168</v>
+        <v>10.26380252838135</v>
       </c>
       <c r="F9">
-        <v>2975456</v>
+        <v>8855344</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>11.3789005279541</v>
+        <v>10.26511192321777</v>
       </c>
       <c r="C10">
-        <v>11.42334461212158</v>
+        <v>10.33250522613525</v>
       </c>
       <c r="D10">
-        <v>11.25901508331299</v>
+        <v>9.975693702697754</v>
       </c>
       <c r="E10">
-        <v>11.25911521911621</v>
+        <v>10.06178665161133</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>25160128</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>11.25961685180664</v>
+        <v>10.06208324432373</v>
       </c>
       <c r="C11">
-        <v>11.50284767150879</v>
+        <v>10.17662620544434</v>
       </c>
       <c r="D11">
-        <v>11.25961685180664</v>
+        <v>10.02207660675049</v>
       </c>
       <c r="E11">
-        <v>11.5008430480957</v>
+        <v>10.14655590057373</v>
       </c>
       <c r="F11">
-        <v>1839888</v>
+        <v>3746880</v>
       </c>
       <c r="L11">
-        <v>40.88330853917338</v>
+        <v>56.61895042887711</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,24 +1217,24 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>11.50039672851562</v>
+        <v>10.14737701416016</v>
       </c>
       <c r="C12">
-        <v>11.52155017852783</v>
+        <v>10.72669124603272</v>
       </c>
       <c r="D12">
-        <v>11.10215091705322</v>
+        <v>10.14737701416016</v>
       </c>
       <c r="E12">
-        <v>11.10743713378906</v>
+        <v>10.50501537322998</v>
       </c>
       <c r="F12">
-        <v>5616864</v>
+        <v>55120496</v>
       </c>
       <c r="L12">
-        <v>28.70523278012545</v>
-      </c>
-      <c r="N12" t="s">
+        <v>74.40082698587584</v>
+      </c>
+      <c r="O12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1243,25 +1243,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>11.1118974685669</v>
+        <v>10.50648021697998</v>
       </c>
       <c r="C13">
-        <v>11.15088272094727</v>
+        <v>10.537766456604</v>
       </c>
       <c r="D13">
-        <v>10.88566493988037</v>
+        <v>10.0401782989502</v>
       </c>
       <c r="E13">
-        <v>11.00549697875977</v>
+        <v>10.04232120513916</v>
       </c>
       <c r="F13">
-        <v>20036016</v>
+        <v>11778624</v>
       </c>
       <c r="L13">
-        <v>26.41179247400865</v>
-      </c>
-      <c r="N13" t="s">
-        <v>195</v>
+        <v>46.63959269594419</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1269,25 +1266,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>11.00484848022461</v>
+        <v>10.04544544219971</v>
       </c>
       <c r="C14">
-        <v>11.00484848022461</v>
+        <v>10.06502532958984</v>
       </c>
       <c r="D14">
-        <v>10.79518032073975</v>
+        <v>9.876456260681152</v>
       </c>
       <c r="E14">
-        <v>10.9908504486084</v>
+        <v>10.03763008117676</v>
       </c>
       <c r="F14">
-        <v>3969024</v>
+        <v>3563744</v>
       </c>
       <c r="L14">
-        <v>26.07505336662297</v>
-      </c>
-      <c r="N14" t="s">
-        <v>195</v>
+        <v>46.44193817581494</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1295,25 +1289,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>10.99140548706055</v>
+        <v>10.03634929656982</v>
       </c>
       <c r="C15">
-        <v>11.01678562164307</v>
+        <v>10.31116962432861</v>
       </c>
       <c r="D15">
-        <v>10.90190029144287</v>
+        <v>10.03634929656982</v>
       </c>
       <c r="E15">
-        <v>10.92335414886475</v>
+        <v>10.31116962432861</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2645984</v>
       </c>
       <c r="L15">
-        <v>24.45838411392961</v>
-      </c>
-      <c r="N15" t="s">
-        <v>195</v>
+        <v>58.09234502181456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1321,28 +1312,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>10.92285537719727</v>
+        <v>10.31500148773193</v>
       </c>
       <c r="C16">
-        <v>10.95451068878174</v>
+        <v>10.38497543334961</v>
       </c>
       <c r="D16">
-        <v>10.83714389801025</v>
+        <v>10.09396171569824</v>
       </c>
       <c r="E16">
-        <v>10.83861446380615</v>
+        <v>10.09889316558838</v>
       </c>
       <c r="F16">
-        <v>210976</v>
+        <v>3043328</v>
       </c>
       <c r="L16">
-        <v>22.48902047238638</v>
+        <v>48.82074153309313</v>
       </c>
       <c r="M16">
-        <v>23.79771197759878</v>
-      </c>
-      <c r="N16" t="s">
-        <v>195</v>
+        <v>50.13408846823184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1350,28 +1338,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>10.83806037902832</v>
+        <v>10.09953117370606</v>
       </c>
       <c r="C17">
-        <v>10.83806037902832</v>
+        <v>10.1134204864502</v>
       </c>
       <c r="D17">
-        <v>10.62841987609863</v>
+        <v>9.625674247741699</v>
       </c>
       <c r="E17">
-        <v>10.722731590271</v>
+        <v>9.757880210876465</v>
       </c>
       <c r="F17">
-        <v>4262128</v>
+        <v>15428416</v>
       </c>
       <c r="L17">
-        <v>20.01025361776105</v>
+        <v>37.89131869718429</v>
       </c>
       <c r="M17">
-        <v>21.82265654271282</v>
-      </c>
-      <c r="N17" t="s">
-        <v>195</v>
+        <v>40.60864035566983</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1379,25 +1364,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>10.72201251983643</v>
+        <v>9.761094093322754</v>
       </c>
       <c r="C18">
-        <v>10.88595676422119</v>
+        <v>9.978549003601074</v>
       </c>
       <c r="D18">
-        <v>10.70092582702637</v>
+        <v>9.744637489318848</v>
       </c>
       <c r="E18">
-        <v>10.88272380828857</v>
+        <v>9.937788963317873</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>31.70259458611887</v>
+        <v>45.17580686381751</v>
       </c>
       <c r="M18">
-        <v>30.40993620981303</v>
+        <v>46.39521967861978</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1405,28 +1390,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>10.88215827941894</v>
+        <v>9.937030792236328</v>
       </c>
       <c r="C19">
-        <v>10.91489696502686</v>
+        <v>9.971464157104492</v>
       </c>
       <c r="D19">
-        <v>10.78493404388428</v>
+        <v>9.801920890808104</v>
       </c>
       <c r="E19">
-        <v>10.78782367706299</v>
+        <v>9.953205108642578</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>28.88510937930723</v>
+        <v>45.78873882868099</v>
       </c>
       <c r="M19">
-        <v>28.41609000803594</v>
-      </c>
-      <c r="N19" t="s">
-        <v>195</v>
+        <v>46.87288429190798</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1434,28 +1416,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>10.78850841522217</v>
+        <v>9.953021049499512</v>
       </c>
       <c r="C20">
-        <v>10.81867408752441</v>
+        <v>10.04485416412354</v>
       </c>
       <c r="D20">
-        <v>10.7335615158081</v>
+        <v>9.890774726867676</v>
       </c>
       <c r="E20">
-        <v>10.76694965362549</v>
+        <v>9.908461570739746</v>
       </c>
       <c r="F20">
-        <v>320160</v>
+        <v>610848</v>
       </c>
       <c r="L20">
-        <v>28.26354607991642</v>
+        <v>44.17610956579974</v>
       </c>
       <c r="M20">
-        <v>27.98150843634038</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
+        <v>45.60274957803008</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1463,31 +1442,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>10.76353359222412</v>
+        <v>9.908981323242188</v>
       </c>
       <c r="C21">
-        <v>10.83312606811523</v>
+        <v>9.94706916809082</v>
       </c>
       <c r="D21">
-        <v>10.717604637146</v>
+        <v>9.759089469909668</v>
       </c>
       <c r="E21">
-        <v>10.75011253356934</v>
+        <v>9.830350875854492</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>953120</v>
       </c>
       <c r="H21">
-        <v>11.24039549827576</v>
+        <v>10.0653865814209</v>
       </c>
       <c r="L21">
-        <v>27.72222664346752</v>
+        <v>41.31819096078627</v>
       </c>
       <c r="M21">
-        <v>27.61465471485947</v>
-      </c>
-      <c r="N21" t="s">
-        <v>195</v>
+        <v>43.39217878151926</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1495,31 +1471,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>10.75346660614014</v>
+        <v>9.831390380859377</v>
       </c>
       <c r="C22">
-        <v>10.91933917999268</v>
+        <v>9.908352851867676</v>
       </c>
       <c r="D22">
-        <v>10.75346660614014</v>
+        <v>9.739517211914062</v>
       </c>
       <c r="E22">
-        <v>10.8727388381958</v>
+        <v>9.800494194030762</v>
       </c>
       <c r="F22">
-        <v>659120</v>
+        <v>240576</v>
       </c>
       <c r="G22">
-        <v>11.22288803827195</v>
+        <v>10.05277265821185</v>
       </c>
       <c r="H22">
-        <v>11.18567514419556</v>
+        <v>10.05598802566528</v>
       </c>
       <c r="L22">
-        <v>37.52602686234857</v>
+        <v>40.19985964300637</v>
       </c>
       <c r="M22">
-        <v>34.36403919914951</v>
+        <v>42.54327198683059</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1527,31 +1503,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>10.87171363830566</v>
+        <v>9.800933837890623</v>
       </c>
       <c r="C23">
-        <v>10.96064758300781</v>
+        <v>9.894604682922363</v>
       </c>
       <c r="D23">
-        <v>10.84020805358887</v>
+        <v>9.800933837890623</v>
       </c>
       <c r="E23">
-        <v>10.85420322418213</v>
+        <v>9.854426383972168</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>11.18937123699106</v>
+        <v>10.03474117873551</v>
       </c>
       <c r="H23">
-        <v>11.13009948730469</v>
+        <v>10.05210571289063</v>
       </c>
       <c r="L23">
-        <v>36.67997958595413</v>
+        <v>43.31757626756449</v>
       </c>
       <c r="M23">
-        <v>33.85025180838543</v>
+        <v>44.64976124973579</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1559,31 +1535,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>10.85411167144775</v>
+        <v>9.854829788208008</v>
       </c>
       <c r="C24">
-        <v>10.92647838592529</v>
+        <v>9.875483512878418</v>
       </c>
       <c r="D24">
-        <v>10.83003330230713</v>
+        <v>9.718439102172852</v>
       </c>
       <c r="E24">
-        <v>10.87535285949707</v>
+        <v>9.765423774719238</v>
       </c>
       <c r="F24">
-        <v>2468936</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>11.16082411176433</v>
+        <v>10.01025777837039</v>
       </c>
       <c r="H24">
-        <v>11.09032564163208</v>
+        <v>10.03953652381897</v>
       </c>
       <c r="L24">
-        <v>38.46096816532079</v>
+        <v>39.49477849873698</v>
       </c>
       <c r="M24">
-        <v>35.04363937734359</v>
+        <v>41.91849872162027</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1591,31 +1567,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>10.8735876083374</v>
+        <v>9.764468193054199</v>
       </c>
       <c r="C25">
-        <v>10.96106147766113</v>
+        <v>9.898918151855469</v>
       </c>
       <c r="D25">
-        <v>10.86169242858887</v>
+        <v>9.731498718261721</v>
       </c>
       <c r="E25">
-        <v>10.8920955657959</v>
+        <v>9.749385833740234</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1685568</v>
       </c>
       <c r="G25">
-        <v>11.13639424394902</v>
+        <v>9.986542147040382</v>
       </c>
       <c r="H25">
-        <v>11.03875279426575</v>
+        <v>10.02970204353332</v>
       </c>
       <c r="L25">
-        <v>39.96480700640852</v>
+        <v>38.8006269252538</v>
       </c>
       <c r="M25">
-        <v>36.0275457775091</v>
+        <v>41.42673602925629</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1623,34 +1599,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>10.89260101318359</v>
+        <v>9.748852729797363</v>
       </c>
       <c r="C26">
-        <v>10.89260101318359</v>
+        <v>9.773486137390137</v>
       </c>
       <c r="D26">
-        <v>10.56058120727539</v>
+        <v>9.618631362915041</v>
       </c>
       <c r="E26">
-        <v>10.59013843536377</v>
+        <v>9.768314361572266</v>
       </c>
       <c r="F26">
-        <v>12910304</v>
+        <v>479808</v>
       </c>
       <c r="G26">
-        <v>11.08673462498672</v>
+        <v>9.966703257452371</v>
       </c>
       <c r="H26">
-        <v>10.99728317260742</v>
+        <v>10.0169084072113</v>
       </c>
       <c r="L26">
-        <v>26.71768336297513</v>
+        <v>40.19623635721164</v>
       </c>
       <c r="M26">
-        <v>27.83778681487588</v>
-      </c>
-      <c r="N26" t="s">
-        <v>195</v>
+        <v>42.28728243053253</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1658,31 +1631,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>10.59306621551514</v>
+        <v>9.768567085266112</v>
       </c>
       <c r="C27">
-        <v>10.73361206054688</v>
+        <v>9.77631664276123</v>
       </c>
       <c r="D27">
-        <v>10.57636642456055</v>
+        <v>9.34549045562744</v>
       </c>
       <c r="E27">
-        <v>10.58119964599609</v>
+        <v>9.40771484375</v>
       </c>
       <c r="F27">
-        <v>887352</v>
+        <v>7586576</v>
       </c>
       <c r="G27">
-        <v>11.04077689962394</v>
+        <v>9.915886128933975</v>
       </c>
       <c r="H27">
-        <v>10.95055203437805</v>
+        <v>9.97419638633728</v>
       </c>
       <c r="L27">
-        <v>26.42596706343814</v>
+        <v>27.00017496796298</v>
       </c>
       <c r="M27">
-        <v>27.63749957217871</v>
+        <v>32.49325921043864</v>
       </c>
       <c r="N27" t="s">
         <v>195</v>
@@ -1693,31 +1666,34 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>10.58118057250977</v>
+        <v>9.408587455749512</v>
       </c>
       <c r="C28">
-        <v>10.67686557769775</v>
+        <v>9.440422058105469</v>
       </c>
       <c r="D28">
-        <v>10.5061845779419</v>
+        <v>9.011242866516112</v>
       </c>
       <c r="E28">
-        <v>10.67686557769775</v>
+        <v>9.131260871887209</v>
       </c>
       <c r="F28">
-        <v>708584</v>
+        <v>20176080</v>
       </c>
       <c r="G28">
-        <v>11.0076940521761</v>
+        <v>9.844556560111542</v>
       </c>
       <c r="H28">
-        <v>10.91291799545288</v>
+        <v>9.916594076156617</v>
       </c>
       <c r="L28">
-        <v>34.97424135639687</v>
+        <v>21.0421826733768</v>
       </c>
       <c r="M28">
-        <v>33.17861669816944</v>
+        <v>27.2772907014378</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1725,31 +1701,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>10.67845726013184</v>
+        <v>9.133609771728516</v>
       </c>
       <c r="C29">
-        <v>10.86957454681396</v>
+        <v>9.380495071411133</v>
       </c>
       <c r="D29">
-        <v>10.67845726013184</v>
+        <v>9.12317943572998</v>
       </c>
       <c r="E29">
-        <v>10.85901737213135</v>
+        <v>9.314521789550779</v>
       </c>
       <c r="F29">
-        <v>27032</v>
+        <v>8622288</v>
       </c>
       <c r="G29">
-        <v>10.99417799035385</v>
+        <v>9.796371580969655</v>
       </c>
       <c r="H29">
-        <v>10.88688321113586</v>
+        <v>9.869130039215088</v>
       </c>
       <c r="L29">
-        <v>47.93256305578892</v>
+        <v>32.19963270968671</v>
       </c>
       <c r="M29">
-        <v>42.2468064848735</v>
+        <v>34.75425931701123</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1757,31 +1733,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>10.85927486419678</v>
+        <v>9.31718921661377</v>
       </c>
       <c r="C30">
-        <v>10.96227836608887</v>
+        <v>9.438274383544922</v>
       </c>
       <c r="D30">
-        <v>10.85927486419678</v>
+        <v>9.297301292419434</v>
       </c>
       <c r="E30">
-        <v>10.93941688537598</v>
+        <v>9.438274383544922</v>
       </c>
       <c r="F30">
-        <v>4614800</v>
+        <v>2505904</v>
       </c>
       <c r="G30">
-        <v>10.98919970808313</v>
+        <v>9.763817290294678</v>
       </c>
       <c r="H30">
-        <v>10.87089829444885</v>
+        <v>9.837954425811768</v>
       </c>
       <c r="L30">
-        <v>52.6209374076923</v>
+        <v>38.77247889897152</v>
       </c>
       <c r="M30">
-        <v>45.7465570450324</v>
+        <v>39.29327272302771</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1789,34 +1765,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>10.93914985656738</v>
+        <v>9.439306259155272</v>
       </c>
       <c r="C31">
-        <v>11.14719486236572</v>
+        <v>9.649608612060549</v>
       </c>
       <c r="D31">
-        <v>10.93194675445557</v>
+        <v>9.439306259155272</v>
       </c>
       <c r="E31">
-        <v>11.13847255706787</v>
+        <v>9.616827964782717</v>
       </c>
       <c r="F31">
-        <v>7317208</v>
+        <v>9083584</v>
       </c>
       <c r="G31">
-        <v>11.00276996708175</v>
+        <v>9.750454624339046</v>
       </c>
       <c r="H31">
-        <v>10.85277976989746</v>
+        <v>9.811468029022217</v>
       </c>
       <c r="I31">
-        <v>11.10291369756063</v>
+        <v>9.905145867665608</v>
       </c>
       <c r="L31">
-        <v>62.12103112275712</v>
+        <v>47.0971530599401</v>
       </c>
       <c r="M31">
-        <v>53.29309855331368</v>
+        <v>45.21526458068473</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1824,612 +1800,600 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>11.13932228088379</v>
+        <v>9.617709159851074</v>
       </c>
       <c r="C32">
-        <v>11.19583129882812</v>
+        <v>9.955000877380373</v>
       </c>
       <c r="D32">
-        <v>11.06300735473633</v>
+        <v>9.542910575866699</v>
       </c>
       <c r="E32">
-        <v>11.19583129882812</v>
+        <v>9.954473495483398</v>
       </c>
       <c r="F32">
-        <v>1084360</v>
+        <v>13560640</v>
       </c>
       <c r="G32">
-        <v>11.02032099724051</v>
+        <v>9.769001794443078</v>
       </c>
       <c r="H32">
-        <v>10.85719947814941</v>
+        <v>9.783940935134888</v>
       </c>
       <c r="I32">
-        <v>11.07720321019491</v>
+        <v>9.904012807210286</v>
       </c>
       <c r="L32">
-        <v>64.43292131860552</v>
+        <v>58.96601811474701</v>
       </c>
       <c r="M32">
-        <v>55.2257721306802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>54.29497608391537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>11.1982479095459</v>
+        <v>9.95503044128418</v>
       </c>
       <c r="C33">
-        <v>11.33092975616455</v>
+        <v>9.979900360107422</v>
       </c>
       <c r="D33">
-        <v>11.14419269561768</v>
+        <v>9.855318069458008</v>
       </c>
       <c r="E33">
-        <v>11.32016086578369</v>
+        <v>9.956777572631836</v>
       </c>
       <c r="F33">
-        <v>18476488</v>
+        <v>4125168</v>
       </c>
       <c r="G33">
-        <v>11.04757916710807</v>
+        <v>9.786072319732964</v>
       </c>
       <c r="H33">
-        <v>10.87293267250061</v>
+        <v>9.779663753509521</v>
       </c>
       <c r="I33">
-        <v>11.05568469365438</v>
+        <v>9.904836304982503</v>
       </c>
       <c r="L33">
-        <v>69.04066217138896</v>
+        <v>59.03657103350395</v>
       </c>
       <c r="M33">
-        <v>59.16962172614321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>54.35057527645714</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>11.32053089141846</v>
+        <v>9.957956314086914</v>
       </c>
       <c r="C34">
-        <v>11.32053089141846</v>
+        <v>9.965155601501465</v>
       </c>
       <c r="D34">
-        <v>11.23794555664062</v>
+        <v>9.758039474487305</v>
       </c>
       <c r="E34">
-        <v>11.31196022033691</v>
+        <v>9.91038703918457</v>
       </c>
       <c r="F34">
-        <v>4572960</v>
+        <v>276768</v>
       </c>
       <c r="G34">
-        <v>11.07161380831069</v>
+        <v>9.797373657864927</v>
       </c>
       <c r="H34">
-        <v>10.88898816108704</v>
+        <v>9.773301601409912</v>
       </c>
       <c r="I34">
-        <v>11.04372237523397</v>
+        <v>9.901288954416911</v>
       </c>
       <c r="L34">
-        <v>68.38328300842677</v>
+        <v>56.82355482741686</v>
       </c>
       <c r="M34">
-        <v>58.80171264103957</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>52.95382453938399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>11.3110466003418</v>
+        <v>9.910640716552734</v>
       </c>
       <c r="C35">
-        <v>11.41804504394531</v>
+        <v>10.0423698425293</v>
       </c>
       <c r="D35">
-        <v>11.28931045532227</v>
+        <v>9.90334415435791</v>
       </c>
       <c r="E35">
-        <v>11.30357265472412</v>
+        <v>10.00262832641602</v>
       </c>
       <c r="F35">
-        <v>17756080</v>
+        <v>1032896</v>
       </c>
       <c r="G35">
-        <v>11.09270097616646</v>
+        <v>9.816033173187753</v>
       </c>
       <c r="H35">
-        <v>10.90799908638001</v>
+        <v>9.757874536514283</v>
       </c>
       <c r="I35">
-        <v>11.02305637995402</v>
+        <v>9.903174050649007</v>
       </c>
       <c r="L35">
-        <v>67.64219616568946</v>
+        <v>60.16388188689321</v>
       </c>
       <c r="M35">
-        <v>58.40173103706543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>55.40771494893689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>11.30412578582764</v>
+        <v>10.00318622589111</v>
       </c>
       <c r="C36">
-        <v>11.38305759429932</v>
+        <v>10.02288818359375</v>
       </c>
       <c r="D36">
-        <v>11.05325031280518</v>
+        <v>9.729470252990724</v>
       </c>
       <c r="E36">
-        <v>11.10257053375244</v>
+        <v>9.871425628662109</v>
       </c>
       <c r="F36">
-        <v>13924160</v>
+        <v>6806192</v>
       </c>
       <c r="G36">
-        <v>11.09359820867427</v>
+        <v>9.821068850958149</v>
       </c>
       <c r="H36">
-        <v>10.92119688987732</v>
+        <v>9.746501159667968</v>
       </c>
       <c r="I36">
-        <v>11.01249103546143</v>
+        <v>9.898082002003987</v>
       </c>
       <c r="L36">
-        <v>52.34773221854948</v>
+        <v>53.5362281384013</v>
       </c>
       <c r="M36">
-        <v>49.6803701441965</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>51.30831155841401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>11.10288715362549</v>
+        <v>9.87610912322998</v>
       </c>
       <c r="C37">
-        <v>11.18275260925293</v>
+        <v>9.93513298034668</v>
       </c>
       <c r="D37">
-        <v>11.05528163909912</v>
+        <v>9.605528831481934</v>
       </c>
       <c r="E37">
-        <v>11.0907392501831</v>
+        <v>9.694972038269045</v>
       </c>
       <c r="F37">
-        <v>4369456</v>
+        <v>10643312</v>
       </c>
       <c r="G37">
-        <v>11.09333830335689</v>
+        <v>9.809605504350049</v>
       </c>
       <c r="H37">
-        <v>10.93959727287293</v>
+        <v>9.743355751037598</v>
       </c>
       <c r="I37">
-        <v>10.99832159678141</v>
+        <v>9.879182561238606</v>
       </c>
       <c r="L37">
-        <v>51.57550729428515</v>
+        <v>45.88796205094474</v>
       </c>
       <c r="M37">
-        <v>49.2144971912447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>46.34237547274845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>11.08892917633057</v>
+        <v>9.693483352661133</v>
       </c>
       <c r="C38">
-        <v>11.16758060455322</v>
+        <v>9.769782066345217</v>
       </c>
       <c r="D38">
-        <v>10.97615051269531</v>
+        <v>9.493621826171877</v>
       </c>
       <c r="E38">
-        <v>10.98558807373047</v>
+        <v>9.535541534423828</v>
       </c>
       <c r="F38">
-        <v>1095552</v>
+        <v>11442800</v>
       </c>
       <c r="G38">
-        <v>11.08354282793631</v>
+        <v>9.784690597993119</v>
       </c>
       <c r="H38">
-        <v>10.94474048614502</v>
+        <v>9.723243379592896</v>
       </c>
       <c r="I38">
-        <v>10.98352298736572</v>
+        <v>9.854257043202718</v>
       </c>
       <c r="L38">
-        <v>44.94612594749857</v>
+        <v>40.06933180025886</v>
       </c>
       <c r="M38">
-        <v>45.16114299570484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>42.3536860809327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>10.98348522186279</v>
+        <v>9.539277076721191</v>
       </c>
       <c r="C39">
-        <v>11.17045021057129</v>
+        <v>9.743794441223145</v>
       </c>
       <c r="D39">
-        <v>10.98348522186279</v>
+        <v>9.407673835754396</v>
       </c>
       <c r="E39">
-        <v>11.05582523345947</v>
+        <v>9.657669067382812</v>
       </c>
       <c r="F39">
-        <v>3062480</v>
+        <v>27622528</v>
       </c>
       <c r="G39">
-        <v>11.08102304662023</v>
+        <v>9.773143186119455</v>
       </c>
       <c r="H39">
-        <v>10.95814056396484</v>
+        <v>9.708466577529908</v>
       </c>
       <c r="I39">
-        <v>10.97272672653198</v>
+        <v>9.834052594502767</v>
       </c>
       <c r="L39">
-        <v>49.7954163305387</v>
+        <v>45.9730685005067</v>
       </c>
       <c r="M39">
-        <v>48.22840274519076</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>46.17541160546786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>11.05762195587158</v>
+        <v>9.658492088317873</v>
       </c>
       <c r="C40">
-        <v>11.27998161315918</v>
+        <v>9.838491439819336</v>
       </c>
       <c r="D40">
-        <v>11.05107021331787</v>
+        <v>9.641716957092283</v>
       </c>
       <c r="E40">
-        <v>11.13494300842285</v>
+        <v>9.797136306762695</v>
       </c>
       <c r="F40">
-        <v>3117296</v>
+        <v>125872</v>
       </c>
       <c r="G40">
-        <v>11.08592486132956</v>
+        <v>9.775324378905204</v>
       </c>
       <c r="H40">
-        <v>10.97654023170471</v>
+        <v>9.702900314331055</v>
       </c>
       <c r="I40">
-        <v>10.9685876528422</v>
+        <v>9.825230916341146</v>
       </c>
       <c r="L40">
-        <v>54.83664240502359</v>
+        <v>52.04246928796199</v>
       </c>
       <c r="M40">
-        <v>51.51794158903166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>50.23304082953386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>11.14382171630859</v>
+        <v>9.797022819519045</v>
       </c>
       <c r="C41">
-        <v>11.36972045898438</v>
+        <v>9.835376739501951</v>
       </c>
       <c r="D41">
-        <v>10.9444465637207</v>
+        <v>9.692253112792969</v>
       </c>
       <c r="E41">
-        <v>10.9471025466919</v>
+        <v>9.692253112792969</v>
       </c>
       <c r="F41">
-        <v>11278368</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>11.07330465090796</v>
+        <v>9.767772445622272</v>
       </c>
       <c r="H41">
-        <v>10.98638973236084</v>
+        <v>9.695995426177978</v>
       </c>
       <c r="I41">
-        <v>10.95012963612874</v>
+        <v>9.810087490081788</v>
       </c>
       <c r="L41">
-        <v>43.23970883827141</v>
+        <v>47.52548771277002</v>
       </c>
       <c r="M41">
-        <v>44.31807985780812</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>47.34261224784544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>10.94957447052002</v>
+        <v>9.692222595214844</v>
       </c>
       <c r="C42">
-        <v>10.94997310638428</v>
+        <v>9.855692863464355</v>
       </c>
       <c r="D42">
-        <v>9.624232292175291</v>
+        <v>9.592569351196287</v>
       </c>
       <c r="E42">
-        <v>10.17021942138672</v>
+        <v>9.765493392944336</v>
       </c>
       <c r="F42">
-        <v>98639376</v>
+        <v>401120</v>
       </c>
       <c r="G42">
-        <v>10.99120599367875</v>
+        <v>9.767565259015186</v>
       </c>
       <c r="H42">
-        <v>10.95126376152039</v>
+        <v>9.694245386123658</v>
       </c>
       <c r="I42">
-        <v>10.91888904571533</v>
+        <v>9.785436757405598</v>
       </c>
       <c r="L42">
-        <v>21.79430069770038</v>
+        <v>50.87505796157799</v>
       </c>
       <c r="M42">
-        <v>27.3152295132689</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>49.52666706264677</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>10.1781816482544</v>
+        <v>9.767538070678713</v>
       </c>
       <c r="C43">
-        <v>10.26685237884522</v>
+        <v>9.76893424987793</v>
       </c>
       <c r="D43">
-        <v>9.914863586425779</v>
+        <v>9.39993953704834</v>
       </c>
       <c r="E43">
-        <v>9.988465309143066</v>
+        <v>9.640755653381348</v>
       </c>
       <c r="F43">
-        <v>20747968</v>
+        <v>1718464</v>
       </c>
       <c r="G43">
-        <v>10.90004774963005</v>
+        <v>9.756037113048471</v>
       </c>
       <c r="H43">
-        <v>10.90797686576843</v>
+        <v>9.683561849594117</v>
       </c>
       <c r="I43">
-        <v>10.88498799006144</v>
+        <v>9.772051239013672</v>
       </c>
       <c r="L43">
-        <v>19.27783562045692</v>
+        <v>45.33090203519665</v>
       </c>
       <c r="M43">
-        <v>24.90761889786981</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>46.02533172563727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>9.987642288208008</v>
+        <v>9.661916732788086</v>
       </c>
       <c r="C44">
-        <v>10.08956813812256</v>
+        <v>9.895536422729492</v>
       </c>
       <c r="D44">
-        <v>9.908178329467772</v>
+        <v>9.641139984130859</v>
       </c>
       <c r="E44">
-        <v>9.932072639465332</v>
+        <v>9.890846252441406</v>
       </c>
       <c r="F44">
-        <v>6189280</v>
+        <v>4576496</v>
       </c>
       <c r="G44">
-        <v>10.81205001234235</v>
+        <v>9.76829248935692</v>
       </c>
       <c r="H44">
-        <v>10.86081285476684</v>
+        <v>9.689832973480225</v>
       </c>
       <c r="I44">
-        <v>10.84969539642334</v>
+        <v>9.767158444722494</v>
       </c>
       <c r="L44">
-        <v>18.530978950981</v>
+        <v>56.11728883400456</v>
       </c>
       <c r="M44">
-        <v>24.19504338613132</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>53.17315323129723</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>9.933535575866699</v>
+        <v>9.894245147705078</v>
       </c>
       <c r="C45">
-        <v>10.01680755615234</v>
+        <v>10.60909652709961</v>
       </c>
       <c r="D45">
-        <v>9.82440185546875</v>
+        <v>9.739130020141602</v>
       </c>
       <c r="E45">
-        <v>10.01680755615234</v>
+        <v>10.38111400604248</v>
       </c>
       <c r="F45">
-        <v>1811328</v>
+        <v>25481440</v>
       </c>
       <c r="G45">
-        <v>10.73975524359781</v>
+        <v>9.824003536328334</v>
       </c>
       <c r="H45">
-        <v>10.81704845428467</v>
+        <v>9.721419382095338</v>
       </c>
       <c r="I45">
-        <v>10.81947717666626</v>
+        <v>9.769489924112955</v>
       </c>
       <c r="L45">
-        <v>23.5384058019955</v>
+        <v>69.42255913302971</v>
       </c>
       <c r="M45">
-        <v>27.54907425642005</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>63.4044860756647</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>10.01649570465088</v>
+        <v>10.3817949295044</v>
       </c>
       <c r="C46">
-        <v>10.07083511352539</v>
+        <v>10.52577781677246</v>
       </c>
       <c r="D46">
-        <v>9.946075439453123</v>
+        <v>10.30391788482666</v>
       </c>
       <c r="E46">
-        <v>9.946075439453123</v>
+        <v>10.52577781677246</v>
       </c>
       <c r="F46">
-        <v>5954496</v>
+        <v>16835440</v>
       </c>
       <c r="G46">
-        <v>10.66760253413011</v>
+        <v>9.887801198186891</v>
       </c>
       <c r="H46">
-        <v>10.78484530448914</v>
+        <v>9.759292554855346</v>
       </c>
       <c r="I46">
-        <v>10.78972587585449</v>
+        <v>9.783719412485759</v>
       </c>
       <c r="L46">
-        <v>22.25390294060286</v>
+        <v>72.21871674109083</v>
       </c>
       <c r="M46">
-        <v>26.49523083000133</v>
-      </c>
-      <c r="N46" t="s">
+        <v>65.78036306662497</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>9.946342468261721</v>
+        <v>10.53984451293945</v>
       </c>
       <c r="C47">
-        <v>10.05189037322998</v>
+        <v>10.5683650970459</v>
       </c>
       <c r="D47">
-        <v>9.899638175964355</v>
+        <v>10.26941776275635</v>
       </c>
       <c r="E47">
-        <v>10.0241870880127</v>
+        <v>10.44668579101562</v>
       </c>
       <c r="F47">
-        <v>2962368</v>
+        <v>14872048</v>
       </c>
       <c r="G47">
-        <v>10.6091102208467</v>
+        <v>9.938608888444049</v>
       </c>
       <c r="H47">
-        <v>10.75699467658997</v>
+        <v>9.811241102218627</v>
       </c>
       <c r="I47">
-        <v>10.76644105911255</v>
+        <v>9.806679598490398</v>
       </c>
       <c r="L47">
-        <v>27.19018140090476</v>
+        <v>68.37305721133977</v>
       </c>
       <c r="M47">
-        <v>29.69373513442395</v>
-      </c>
-      <c r="N47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>63.35845227525966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>10.02384757995606</v>
+        <v>10.44791221618652</v>
       </c>
       <c r="C48">
-        <v>10.27610874176025</v>
+        <v>10.80566501617432</v>
       </c>
       <c r="D48">
-        <v>10.01313877105713</v>
+        <v>10.42362594604492</v>
       </c>
       <c r="E48">
-        <v>10.26195526123047</v>
+        <v>10.80566501617432</v>
       </c>
       <c r="F48">
-        <v>3491936</v>
+        <v>15285680</v>
       </c>
       <c r="G48">
-        <v>10.57755067906341</v>
+        <v>10.01743217278317</v>
       </c>
       <c r="H48">
-        <v>10.7362491607666</v>
+        <v>9.894961309432983</v>
       </c>
       <c r="I48">
-        <v>10.74574877421061</v>
+        <v>9.835608800252279</v>
       </c>
       <c r="L48">
-        <v>40.19363964878716</v>
+        <v>75.13410859520441</v>
       </c>
       <c r="M48">
-        <v>38.47055207860966</v>
+        <v>68.94686668682587</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2437,34 +2401,34 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>10.26309299468994</v>
+        <v>10.80538082122803</v>
       </c>
       <c r="C49">
-        <v>10.34388637542725</v>
+        <v>10.88423252105713</v>
       </c>
       <c r="D49">
-        <v>10.21112155914307</v>
+        <v>10.47421646118164</v>
       </c>
       <c r="E49">
-        <v>10.28330707550049</v>
+        <v>10.56119155883789</v>
       </c>
       <c r="F49">
-        <v>3005824</v>
+        <v>27009472</v>
       </c>
       <c r="G49">
-        <v>10.55080126055769</v>
+        <v>10.06686484424269</v>
       </c>
       <c r="H49">
-        <v>10.70746364593506</v>
+        <v>9.957294797897339</v>
       </c>
       <c r="I49">
-        <v>10.72893155415853</v>
+        <v>9.855875015258789</v>
       </c>
       <c r="L49">
-        <v>41.25358595277904</v>
+        <v>64.56017364361487</v>
       </c>
       <c r="M49">
-        <v>39.20452496353212</v>
+        <v>62.01057088417206</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2472,34 +2436,34 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>10.28118133544922</v>
+        <v>10.56537342071533</v>
       </c>
       <c r="C50">
-        <v>10.32830333709717</v>
+        <v>10.72844982147217</v>
       </c>
       <c r="D50">
-        <v>10.15017032623291</v>
+        <v>10.42394542694092</v>
       </c>
       <c r="E50">
-        <v>10.26380252838135</v>
+        <v>10.72844982147217</v>
       </c>
       <c r="F50">
-        <v>8855344</v>
+        <v>6686752</v>
       </c>
       <c r="G50">
-        <v>10.52471046672348</v>
+        <v>10.12700893308173</v>
       </c>
       <c r="H50">
-        <v>10.67368292808533</v>
+        <v>10.0218035697937</v>
       </c>
       <c r="I50">
-        <v>10.71215998331706</v>
+        <v>9.883207956949869</v>
       </c>
       <c r="L50">
-        <v>40.51565960789146</v>
+        <v>68.02382663530727</v>
       </c>
       <c r="M50">
-        <v>38.74979644266023</v>
+        <v>64.63214613898982</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2507,34 +2471,34 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>10.26511192321777</v>
+        <v>10.7298173904419</v>
       </c>
       <c r="C51">
-        <v>10.33250522613525</v>
+        <v>10.77563953399658</v>
       </c>
       <c r="D51">
-        <v>9.975693702697754</v>
+        <v>10.53099346160889</v>
       </c>
       <c r="E51">
-        <v>10.06178665161133</v>
+        <v>10.67288303375244</v>
       </c>
       <c r="F51">
-        <v>25160128</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>10.48262648353146</v>
+        <v>10.17663385132452</v>
       </c>
       <c r="H51">
-        <v>10.6198486328125</v>
+        <v>10.07460632324219</v>
       </c>
       <c r="I51">
-        <v>10.68921578725179</v>
+        <v>9.911292362213135</v>
       </c>
       <c r="L51">
-        <v>33.52760891944965</v>
+        <v>65.62663284170807</v>
       </c>
       <c r="M51">
-        <v>34.31083293383522</v>
+        <v>63.07486058702284</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2542,34 +2506,34 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>10.06208324432373</v>
+        <v>10.66832065582275</v>
       </c>
       <c r="C52">
-        <v>10.17662620544434</v>
+        <v>10.8345947265625</v>
       </c>
       <c r="D52">
-        <v>10.02207660675049</v>
+        <v>10.56181716918945</v>
       </c>
       <c r="E52">
-        <v>10.14655590057373</v>
+        <v>10.72010803222656</v>
       </c>
       <c r="F52">
-        <v>3746880</v>
+        <v>2930304</v>
       </c>
       <c r="G52">
-        <v>10.45207461235348</v>
+        <v>10.22604059504289</v>
       </c>
       <c r="H52">
-        <v>10.56738486289978</v>
+        <v>10.11288805007934</v>
       </c>
       <c r="I52">
-        <v>10.66500968933105</v>
+        <v>9.941946156819661</v>
       </c>
       <c r="L52">
-        <v>38.53238711961305</v>
+        <v>66.74705423637035</v>
       </c>
       <c r="M52">
-        <v>37.54396946120369</v>
+        <v>63.87158824169364</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2577,34 +2541,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>10.14737701416016</v>
+        <v>10.71799755096436</v>
       </c>
       <c r="C53">
-        <v>10.72669124603272</v>
+        <v>10.93205261230469</v>
       </c>
       <c r="D53">
-        <v>10.14737701416016</v>
+        <v>10.69357490539551</v>
       </c>
       <c r="E53">
-        <v>10.50501537322998</v>
+        <v>10.71323680877686</v>
       </c>
       <c r="F53">
-        <v>55120496</v>
+        <v>1583280</v>
       </c>
       <c r="G53">
-        <v>10.4568874087968</v>
+        <v>10.2703311599278</v>
       </c>
       <c r="H53">
-        <v>10.5266275882721</v>
+        <v>10.1507110118866</v>
       </c>
       <c r="I53">
-        <v>10.65337009429932</v>
+        <v>9.970573170979817</v>
       </c>
       <c r="L53">
-        <v>54.74256331363836</v>
+        <v>66.39281631623155</v>
       </c>
       <c r="M53">
-        <v>48.9796095072981</v>
+        <v>63.65637131307093</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2612,34 +2576,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>10.50648021697998</v>
+        <v>10.7129316329956</v>
       </c>
       <c r="C54">
-        <v>10.537766456604</v>
+        <v>10.7129316329956</v>
       </c>
       <c r="D54">
-        <v>10.0401782989502</v>
+        <v>10.44293022155762</v>
       </c>
       <c r="E54">
-        <v>10.04232120513916</v>
+        <v>10.57954692840576</v>
       </c>
       <c r="F54">
-        <v>11778624</v>
+        <v>1784848</v>
       </c>
       <c r="G54">
-        <v>10.41919957210065</v>
+        <v>10.29844168433488</v>
       </c>
       <c r="H54">
-        <v>10.46314563751221</v>
+        <v>10.18416900634766</v>
       </c>
       <c r="I54">
-        <v>10.62560237248739</v>
+        <v>9.997710609436036</v>
       </c>
       <c r="L54">
-        <v>39.58375996975873</v>
+        <v>59.48291030825789</v>
       </c>
       <c r="M54">
-        <v>39.04245825645229</v>
+        <v>59.45847573460588</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2647,34 +2611,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>10.04544544219971</v>
+        <v>10.57817840576172</v>
       </c>
       <c r="C55">
-        <v>10.06502532958984</v>
+        <v>10.71587085723877</v>
       </c>
       <c r="D55">
-        <v>9.876456260681152</v>
+        <v>10.34137344360352</v>
       </c>
       <c r="E55">
-        <v>10.03763008117676</v>
+        <v>10.34137344360352</v>
       </c>
       <c r="F55">
-        <v>3563744</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>10.38451143656212</v>
+        <v>10.30234457154112</v>
       </c>
       <c r="H55">
-        <v>10.39984850883484</v>
+        <v>10.20110626220703</v>
       </c>
       <c r="I55">
-        <v>10.59712018966675</v>
+        <v>10.01744352976481</v>
       </c>
       <c r="L55">
-        <v>39.45912993944656</v>
+        <v>49.21668471801136</v>
       </c>
       <c r="M55">
-        <v>38.95616232600699</v>
+        <v>52.78052762369991</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2682,34 +2646,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>10.03634929656982</v>
+        <v>10.34177112579346</v>
       </c>
       <c r="C56">
-        <v>10.31116962432861</v>
+        <v>10.41810321807861</v>
       </c>
       <c r="D56">
-        <v>10.03634929656982</v>
+        <v>10.0374813079834</v>
       </c>
       <c r="E56">
-        <v>10.31116962432861</v>
+        <v>10.27226448059082</v>
       </c>
       <c r="F56">
-        <v>2645984</v>
+        <v>12750624</v>
       </c>
       <c r="G56">
-        <v>10.37784399908634</v>
+        <v>10.29961001781837</v>
       </c>
       <c r="H56">
-        <v>10.36027846336365</v>
+        <v>10.22114820480347</v>
       </c>
       <c r="I56">
-        <v>10.58782122929891</v>
+        <v>10.03424186706543</v>
       </c>
       <c r="L56">
-        <v>49.82268590791494</v>
+        <v>46.59173513474216</v>
       </c>
       <c r="M56">
-        <v>46.39622250268897</v>
+        <v>50.99096003273296</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2717,34 +2681,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>10.31500148773193</v>
+        <v>10.27200794219971</v>
       </c>
       <c r="C57">
-        <v>10.38497543334961</v>
+        <v>10.31961727142334</v>
       </c>
       <c r="D57">
-        <v>10.09396171569824</v>
+        <v>9.724664688110352</v>
       </c>
       <c r="E57">
-        <v>10.09889316558838</v>
+        <v>9.966253280639648</v>
       </c>
       <c r="F57">
-        <v>3043328</v>
+        <v>19587584</v>
       </c>
       <c r="G57">
-        <v>10.35248483240471</v>
+        <v>10.26930485989303</v>
       </c>
       <c r="H57">
-        <v>10.31068615913391</v>
+        <v>10.234712266922</v>
       </c>
       <c r="I57">
-        <v>10.57174434661865</v>
+        <v>10.05285981496175</v>
       </c>
       <c r="L57">
-        <v>43.34482482533887</v>
+        <v>36.81153030339103</v>
       </c>
       <c r="M57">
-        <v>42.10720844458567</v>
+        <v>43.89407304315581</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2752,34 +2716,34 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>10.09953117370606</v>
+        <v>9.962930679321287</v>
       </c>
       <c r="C58">
-        <v>10.1134204864502</v>
+        <v>9.976784706115724</v>
       </c>
       <c r="D58">
-        <v>9.625674247741699</v>
+        <v>9.699694633483888</v>
       </c>
       <c r="E58">
-        <v>9.757880210876465</v>
+        <v>9.958565711975098</v>
       </c>
       <c r="F58">
-        <v>15428416</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>10.29842986681123</v>
+        <v>10.24105584644594</v>
       </c>
       <c r="H58">
-        <v>10.24930076599121</v>
+        <v>10.25586347579956</v>
       </c>
       <c r="I58">
-        <v>10.54111150105794</v>
+        <v>10.08043664296468</v>
       </c>
       <c r="L58">
-        <v>35.09766694499832</v>
+        <v>36.59443107782277</v>
       </c>
       <c r="M58">
-        <v>36.3015239409648</v>
+        <v>43.72941432466272</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2787,34 +2751,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>9.761094093322754</v>
+        <v>9.957740783691406</v>
       </c>
       <c r="C59">
-        <v>9.978549003601074</v>
+        <v>10.11441993713379</v>
       </c>
       <c r="D59">
-        <v>9.744637489318848</v>
+        <v>9.933629035949709</v>
       </c>
       <c r="E59">
-        <v>9.937788963317873</v>
+        <v>10.03017234802246</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>10.26564433013002</v>
+        <v>10.22188461931654</v>
       </c>
       <c r="H59">
-        <v>10.19339895248413</v>
+        <v>10.27448863983154</v>
       </c>
       <c r="I59">
-        <v>10.51040388743083</v>
+        <v>10.1042916615804</v>
       </c>
       <c r="L59">
-        <v>41.68325101715228</v>
+        <v>40.28485038249573</v>
       </c>
       <c r="M59">
-        <v>40.92893301980908</v>
+        <v>45.77005690783917</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2822,34 +2786,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>9.937030792236328</v>
+        <v>10.03022003173828</v>
       </c>
       <c r="C60">
-        <v>9.971464157104492</v>
+        <v>10.09024810791016</v>
       </c>
       <c r="D60">
-        <v>9.801920890808104</v>
+        <v>9.96314811706543</v>
       </c>
       <c r="E60">
-        <v>9.953205108642578</v>
+        <v>10.04498767852783</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>10.23724076454025</v>
+        <v>10.20580307924484</v>
       </c>
       <c r="H60">
-        <v>10.13431205749512</v>
+        <v>10.2868812084198</v>
       </c>
       <c r="I60">
-        <v>10.47753016153971</v>
+        <v>10.12451543807983</v>
       </c>
       <c r="L60">
-        <v>42.24815660015123</v>
+        <v>41.08302759736505</v>
       </c>
       <c r="M60">
-        <v>41.32229299988867</v>
+        <v>46.2047395319517</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2857,34 +2821,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>9.953021049499512</v>
+        <v>10.04812908172607</v>
       </c>
       <c r="C61">
-        <v>10.04485416412354</v>
+        <v>10.29409313201904</v>
       </c>
       <c r="D61">
-        <v>9.890774726867676</v>
+        <v>10.02764225006104</v>
       </c>
       <c r="E61">
-        <v>9.908461570739746</v>
+        <v>10.29409313201904</v>
       </c>
       <c r="F61">
-        <v>610848</v>
+        <v>1268400</v>
       </c>
       <c r="G61">
-        <v>10.20735174692202</v>
+        <v>10.21382944767885</v>
       </c>
       <c r="H61">
-        <v>10.08238000869751</v>
+        <v>10.3169732093811</v>
       </c>
       <c r="I61">
-        <v>10.43652979532878</v>
+        <v>10.14709094365438</v>
       </c>
       <c r="L61">
-        <v>40.95284664087377</v>
+        <v>52.97312331016747</v>
       </c>
       <c r="M61">
-        <v>40.47974940398102</v>
+        <v>53.02301914955238</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2892,34 +2856,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>9.908981323242188</v>
+        <v>10.29364681243896</v>
       </c>
       <c r="C62">
-        <v>9.94706916809082</v>
+        <v>10.3287935256958</v>
       </c>
       <c r="D62">
-        <v>9.759089469909668</v>
+        <v>10.18104648590088</v>
       </c>
       <c r="E62">
-        <v>9.830350875854492</v>
+        <v>10.3043041229248</v>
       </c>
       <c r="F62">
-        <v>953120</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>10.17307894046134</v>
+        <v>10.22205441815576</v>
       </c>
       <c r="H62">
-        <v>10.0653865814209</v>
+        <v>10.34391374588013</v>
       </c>
       <c r="I62">
-        <v>10.39101378122965</v>
+        <v>10.15875196456909</v>
       </c>
       <c r="L62">
-        <v>38.62695682378497</v>
+        <v>53.40673922225884</v>
       </c>
       <c r="M62">
-        <v>38.9853248645924</v>
+        <v>53.28439299457408</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2927,34 +2891,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>9.831390380859377</v>
+        <v>10.30271434783936</v>
       </c>
       <c r="C63">
-        <v>9.908352851867676</v>
+        <v>10.30678176879883</v>
       </c>
       <c r="D63">
-        <v>9.739517211914062</v>
+        <v>10.20350742340088</v>
       </c>
       <c r="E63">
-        <v>9.800494194030762</v>
+        <v>10.21114826202393</v>
       </c>
       <c r="F63">
-        <v>240576</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>10.13920759987674</v>
+        <v>10.2210629494165</v>
       </c>
       <c r="H63">
-        <v>10.05598802566528</v>
+        <v>10.37243337631226</v>
       </c>
       <c r="I63">
-        <v>10.34035822550456</v>
+        <v>10.16723098754883</v>
       </c>
       <c r="L63">
-        <v>37.70608321868585</v>
+        <v>48.78952056156029</v>
       </c>
       <c r="M63">
-        <v>38.40174161474081</v>
+        <v>50.52260861547094</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2962,1166 +2926,1163 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>9.800933837890623</v>
+        <v>10.20991325378418</v>
       </c>
       <c r="C64">
-        <v>9.894604682922363</v>
+        <v>10.21638774871826</v>
       </c>
       <c r="D64">
-        <v>9.800933837890623</v>
+        <v>10.02546787261963</v>
       </c>
       <c r="E64">
-        <v>9.854426383972168</v>
+        <v>10.02553462982178</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>597328</v>
       </c>
       <c r="G64">
-        <v>10.11331839843087</v>
+        <v>10.20328764763516</v>
       </c>
       <c r="H64">
-        <v>10.05210571289063</v>
+        <v>10.37916779518127</v>
       </c>
       <c r="I64">
-        <v>10.2917737642924</v>
+        <v>10.17106924057007</v>
       </c>
       <c r="L64">
-        <v>40.58459259281074</v>
+        <v>40.86935330055123</v>
       </c>
       <c r="M64">
-        <v>40.14473296574837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>45.46598404772947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>9.854829788208008</v>
+        <v>10.02690982818604</v>
       </c>
       <c r="C65">
-        <v>9.875483512878418</v>
+        <v>10.18760681152344</v>
       </c>
       <c r="D65">
-        <v>9.718439102172852</v>
+        <v>9.97386646270752</v>
       </c>
       <c r="E65">
-        <v>9.765423774719238</v>
+        <v>10.16082954406738</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>785312</v>
       </c>
       <c r="G65">
-        <v>10.08169161445708</v>
+        <v>10.19942782003809</v>
       </c>
       <c r="H65">
-        <v>10.03953652381897</v>
+        <v>10.36815357208252</v>
       </c>
       <c r="I65">
-        <v>10.2405021349589</v>
+        <v>10.17634261449178</v>
       </c>
       <c r="L65">
-        <v>37.37798986536359</v>
+        <v>47.81591645463035</v>
       </c>
       <c r="M65">
-        <v>38.22258750930784</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>49.43837728205644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>9.764468193054199</v>
+        <v>10.16036510467529</v>
       </c>
       <c r="C66">
-        <v>9.898918151855469</v>
+        <v>10.29226398468018</v>
       </c>
       <c r="D66">
-        <v>9.731498718261721</v>
+        <v>10.13726711273193</v>
       </c>
       <c r="E66">
-        <v>9.749385833740234</v>
+        <v>10.16327953338623</v>
       </c>
       <c r="F66">
-        <v>1685568</v>
+        <v>472896</v>
       </c>
       <c r="G66">
-        <v>10.05148199802828</v>
+        <v>10.19614161216065</v>
       </c>
       <c r="H66">
-        <v>10.02970204353332</v>
+        <v>10.35002865791321</v>
       </c>
       <c r="I66">
-        <v>10.19539597829183</v>
+        <v>10.18607107798258</v>
       </c>
       <c r="L66">
-        <v>36.78874296039609</v>
+        <v>47.94050913180671</v>
       </c>
       <c r="M66">
-        <v>37.87070986395948</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>49.51009998796349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>9.748852729797363</v>
+        <v>10.16318607330322</v>
       </c>
       <c r="C67">
-        <v>9.773486137390137</v>
+        <v>10.23097991943359</v>
       </c>
       <c r="D67">
-        <v>9.618631362915041</v>
+        <v>10.12392616271973</v>
       </c>
       <c r="E67">
-        <v>9.768314361572266</v>
+        <v>10.23097991943359</v>
       </c>
       <c r="F67">
-        <v>479808</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>10.02573948562319</v>
+        <v>10.19930873100364</v>
       </c>
       <c r="H67">
-        <v>10.0169084072113</v>
+        <v>10.33924336433411</v>
       </c>
       <c r="I67">
-        <v>10.15131514867147</v>
+        <v>10.20393800735474</v>
       </c>
       <c r="L67">
-        <v>38.08472775037091</v>
+        <v>51.53750317944984</v>
       </c>
       <c r="M67">
-        <v>38.58927923027279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>51.55510925623657</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>9.768567085266112</v>
+        <v>10.23272323608398</v>
       </c>
       <c r="C68">
-        <v>9.77631664276123</v>
+        <v>10.56049823760986</v>
       </c>
       <c r="D68">
-        <v>9.34549045562744</v>
+        <v>10.22741603851318</v>
       </c>
       <c r="E68">
-        <v>9.40771484375</v>
+        <v>10.27165603637695</v>
       </c>
       <c r="F68">
-        <v>7586576</v>
+        <v>17832224</v>
       </c>
       <c r="G68">
-        <v>9.96955542727108</v>
+        <v>10.20588575876485</v>
       </c>
       <c r="H68">
-        <v>9.97419638633728</v>
+        <v>10.31254291534424</v>
       </c>
       <c r="I68">
-        <v>10.09871937433879</v>
+        <v>10.22847515741984</v>
       </c>
       <c r="L68">
-        <v>26.45863582541761</v>
+        <v>53.69983912197716</v>
       </c>
       <c r="M68">
-        <v>31.18874332018279</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>52.79229993086942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>9.408587455749512</v>
+        <v>10.27096080780029</v>
       </c>
       <c r="C69">
-        <v>9.440422058105469</v>
+        <v>10.35361003875732</v>
       </c>
       <c r="D69">
-        <v>9.011242866516112</v>
+        <v>9.975078582763672</v>
       </c>
       <c r="E69">
-        <v>9.131260871887209</v>
+        <v>9.984240531921388</v>
       </c>
       <c r="F69">
-        <v>20176080</v>
+        <v>17962448</v>
       </c>
       <c r="G69">
-        <v>9.893346831327092</v>
+        <v>10.18573619268817</v>
       </c>
       <c r="H69">
-        <v>9.916594076156617</v>
+        <v>10.28369536399841</v>
       </c>
       <c r="I69">
-        <v>10.03456722895304</v>
+        <v>10.23936087290446</v>
       </c>
       <c r="L69">
-        <v>20.94424220200004</v>
+        <v>39.64014569035636</v>
       </c>
       <c r="M69">
-        <v>26.92547851203341</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>44.20237033709653</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>9.133609771728516</v>
+        <v>9.984010696411133</v>
       </c>
       <c r="C70">
-        <v>9.380495071411133</v>
+        <v>10.17773056030273</v>
       </c>
       <c r="D70">
-        <v>9.12317943572998</v>
+        <v>9.983682632446287</v>
       </c>
       <c r="E70">
-        <v>9.314521789550779</v>
+        <v>10.1459789276123</v>
       </c>
       <c r="F70">
-        <v>8622288</v>
+        <v>3058704</v>
       </c>
       <c r="G70">
-        <v>9.840726372983791</v>
+        <v>10.18212189586309</v>
       </c>
       <c r="H70">
-        <v>9.869130039215088</v>
+        <v>10.25457181930542</v>
       </c>
       <c r="I70">
-        <v>9.973886521657308</v>
+        <v>10.25098896026611</v>
       </c>
       <c r="L70">
-        <v>31.5788235416657</v>
+        <v>48.2223807498164</v>
       </c>
       <c r="M70">
-        <v>33.42235442852085</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>49.21055265751184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>9.31718921661377</v>
+        <v>10.1457109451294</v>
       </c>
       <c r="C71">
-        <v>9.438274383544922</v>
+        <v>10.17617893218994</v>
       </c>
       <c r="D71">
-        <v>9.297301292419434</v>
+        <v>10.00920867919922</v>
       </c>
       <c r="E71">
-        <v>9.438274383544922</v>
+        <v>10.04619216918945</v>
       </c>
       <c r="F71">
-        <v>2505904</v>
+        <v>3422960</v>
       </c>
       <c r="G71">
-        <v>9.804139828489348</v>
+        <v>10.16976464798367</v>
       </c>
       <c r="H71">
-        <v>9.837954425811768</v>
+        <v>10.22323727607727</v>
       </c>
       <c r="I71">
-        <v>9.923592249552408</v>
+        <v>10.26278692881266</v>
       </c>
       <c r="L71">
-        <v>37.92272611340702</v>
+        <v>43.89087615825729</v>
       </c>
       <c r="M71">
-        <v>37.46557024500981</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>46.44099528306691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>9.439306259155272</v>
+        <v>10.04494762420654</v>
       </c>
       <c r="C72">
-        <v>9.649608612060549</v>
+        <v>10.12651443481445</v>
       </c>
       <c r="D72">
-        <v>9.439306259155272</v>
+        <v>9.994377136230469</v>
       </c>
       <c r="E72">
-        <v>9.616827964782717</v>
+        <v>10.07767200469971</v>
       </c>
       <c r="F72">
-        <v>9083584</v>
+        <v>3750672</v>
       </c>
       <c r="G72">
-        <v>9.78711147724329</v>
+        <v>10.16139258950331</v>
       </c>
       <c r="H72">
-        <v>9.811468029022217</v>
+        <v>10.19111547470093</v>
       </c>
       <c r="I72">
-        <v>9.905145867665608</v>
+        <v>10.27319288253784</v>
       </c>
       <c r="L72">
-        <v>46.04316026342076</v>
+        <v>45.6243088524915</v>
       </c>
       <c r="M72">
-        <v>42.85764112664494</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>47.44585019948222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>9.617709159851074</v>
+        <v>10.07650279998779</v>
       </c>
       <c r="C73">
-        <v>9.955000877380373</v>
+        <v>10.30440330505371</v>
       </c>
       <c r="D73">
-        <v>9.542910575866699</v>
+        <v>10.0153284072876</v>
       </c>
       <c r="E73">
-        <v>9.954473495483398</v>
+        <v>10.08300685882568</v>
       </c>
       <c r="F73">
-        <v>13560640</v>
+        <v>24127360</v>
       </c>
       <c r="G73">
-        <v>9.802326206174209</v>
+        <v>10.15426661398716</v>
       </c>
       <c r="H73">
-        <v>9.783940935134888</v>
+        <v>10.15960397720337</v>
       </c>
       <c r="I73">
-        <v>9.904012807210286</v>
+        <v>10.28793458938599</v>
       </c>
       <c r="L73">
-        <v>57.78970130298447</v>
+        <v>45.94270690880055</v>
       </c>
       <c r="M73">
-        <v>51.39284208202903</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>47.62518646889954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>9.95503044128418</v>
+        <v>10.08241748809814</v>
       </c>
       <c r="C74">
-        <v>9.979900360107422</v>
+        <v>10.29530239105225</v>
       </c>
       <c r="D74">
-        <v>9.855318069458008</v>
+        <v>10.06909847259522</v>
       </c>
       <c r="E74">
-        <v>9.956777572631836</v>
+        <v>10.24943923950195</v>
       </c>
       <c r="F74">
-        <v>4125168</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>9.816367239488537</v>
+        <v>10.16291867085214</v>
       </c>
       <c r="H74">
-        <v>9.779663753509521</v>
+        <v>10.14309859275818</v>
       </c>
       <c r="I74">
-        <v>9.904836304982503</v>
+        <v>10.29988768895467</v>
       </c>
       <c r="L74">
-        <v>57.8601292822722</v>
+        <v>55.15816261949049</v>
       </c>
       <c r="M74">
-        <v>51.44613874943789</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>53.01217909903998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>9.957956314086914</v>
+        <v>10.24986267089844</v>
       </c>
       <c r="C75">
-        <v>9.965155601501465</v>
+        <v>10.3123369216919</v>
       </c>
       <c r="D75">
-        <v>9.758039474487305</v>
+        <v>10.1805009841919</v>
       </c>
       <c r="E75">
-        <v>9.91038703918457</v>
+        <v>10.19017314910889</v>
       </c>
       <c r="F75">
-        <v>276768</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>9.824914494006357</v>
+        <v>10.16539635069367</v>
       </c>
       <c r="H75">
-        <v>9.773301601409912</v>
+        <v>10.13553857803345</v>
       </c>
       <c r="I75">
-        <v>9.901288954416911</v>
+        <v>10.29352299372355</v>
       </c>
       <c r="L75">
-        <v>55.75305267196293</v>
+        <v>51.63199917549076</v>
       </c>
       <c r="M75">
-        <v>50.25142129577161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>51.00053226866883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>9.910640716552734</v>
+        <v>10.18700790405273</v>
       </c>
       <c r="C76">
-        <v>10.0423698425293</v>
+        <v>10.40361404418945</v>
       </c>
       <c r="D76">
-        <v>9.90334415435791</v>
+        <v>10.18452453613281</v>
       </c>
       <c r="E76">
-        <v>10.00262832641602</v>
+        <v>10.40361404418945</v>
       </c>
       <c r="F76">
-        <v>1032896</v>
+        <v>4448224</v>
       </c>
       <c r="G76">
-        <v>9.84107029695269</v>
+        <v>10.18705250464783</v>
       </c>
       <c r="H76">
-        <v>9.757874536514283</v>
+        <v>10.14210605621338</v>
       </c>
       <c r="I76">
-        <v>9.903174050649007</v>
+        <v>10.28945086797078</v>
       </c>
       <c r="L76">
-        <v>59.08594981402266</v>
+        <v>61.58251245911602</v>
       </c>
       <c r="M76">
-        <v>52.60808365709618</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>57.28681708616873</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>10.00318622589111</v>
+        <v>10.40359210968018</v>
       </c>
       <c r="C77">
-        <v>10.02288818359375</v>
+        <v>10.44453525543213</v>
       </c>
       <c r="D77">
-        <v>9.729470252990724</v>
+        <v>10.34212398529053</v>
       </c>
       <c r="E77">
-        <v>9.871425628662109</v>
+        <v>10.35823059082031</v>
       </c>
       <c r="F77">
-        <v>6806192</v>
+        <v>457056</v>
       </c>
       <c r="G77">
-        <v>9.843829872562637</v>
+        <v>10.20261414884533</v>
       </c>
       <c r="H77">
-        <v>9.746501159667968</v>
+        <v>10.16170492172241</v>
       </c>
       <c r="I77">
-        <v>9.898082002003987</v>
+        <v>10.28650236129761</v>
       </c>
       <c r="L77">
-        <v>52.73018491249234</v>
+        <v>58.69413161071629</v>
       </c>
       <c r="M77">
-        <v>49.04891791819223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>55.65193092179968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>9.87610912322998</v>
+        <v>10.35763835906982</v>
       </c>
       <c r="C78">
-        <v>9.93513298034668</v>
+        <v>10.56607532501221</v>
       </c>
       <c r="D78">
-        <v>9.605528831481934</v>
+        <v>10.32926940917969</v>
       </c>
       <c r="E78">
-        <v>9.694972038269045</v>
+        <v>10.40175437927246</v>
       </c>
       <c r="F78">
-        <v>10643312</v>
+        <v>7546000</v>
       </c>
       <c r="G78">
-        <v>9.83029734217231</v>
+        <v>10.22071780615688</v>
       </c>
       <c r="H78">
-        <v>9.743355751037598</v>
+        <v>10.18386435508728</v>
       </c>
       <c r="I78">
-        <v>9.879182561238606</v>
+        <v>10.27303867340088</v>
       </c>
       <c r="L78">
-        <v>45.34950441452246</v>
+        <v>60.68366727473786</v>
       </c>
       <c r="M78">
-        <v>44.67167742095001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>56.92164453384054</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>9.693483352661133</v>
+        <v>10.40353107452393</v>
       </c>
       <c r="C79">
-        <v>9.769782066345217</v>
+        <v>10.41310596466064</v>
       </c>
       <c r="D79">
-        <v>9.493621826171877</v>
+        <v>10.08362579345703</v>
       </c>
       <c r="E79">
-        <v>9.535541534423828</v>
+        <v>10.30887413024902</v>
       </c>
       <c r="F79">
-        <v>11442800</v>
+        <v>3407232</v>
       </c>
       <c r="G79">
-        <v>9.80350135964972</v>
+        <v>10.22873201743799</v>
       </c>
       <c r="H79">
-        <v>9.723243379592896</v>
+        <v>10.19779944419861</v>
       </c>
       <c r="I79">
-        <v>9.854257043202718</v>
+        <v>10.26462809244792</v>
       </c>
       <c r="L79">
-        <v>39.70101678056187</v>
+        <v>54.39383773399258</v>
       </c>
       <c r="M79">
-        <v>41.10252509507692</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>53.40753755482225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>9.539277076721191</v>
+        <v>10.30729866027832</v>
       </c>
       <c r="C80">
-        <v>9.743794441223145</v>
+        <v>10.31683540344238</v>
       </c>
       <c r="D80">
-        <v>9.407673835754396</v>
+        <v>10.14854335784912</v>
       </c>
       <c r="E80">
-        <v>9.657669067382812</v>
+        <v>10.28764247894287</v>
       </c>
       <c r="F80">
-        <v>27622528</v>
+        <v>1243440</v>
       </c>
       <c r="G80">
-        <v>9.790243878534547</v>
+        <v>10.23408751393843</v>
       </c>
       <c r="H80">
-        <v>9.708466577529908</v>
+        <v>10.20993218421936</v>
       </c>
       <c r="I80">
-        <v>9.834052594502767</v>
+        <v>10.24993451436361</v>
       </c>
       <c r="L80">
-        <v>45.54601024973194</v>
+        <v>52.98160874224702</v>
       </c>
       <c r="M80">
-        <v>44.74448612195955</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>52.60800807209741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>9.658492088317873</v>
+        <v>10.29500484466553</v>
       </c>
       <c r="C81">
-        <v>9.838491439819336</v>
+        <v>10.37992668151856</v>
       </c>
       <c r="D81">
-        <v>9.641716957092283</v>
+        <v>10.28502082824707</v>
       </c>
       <c r="E81">
-        <v>9.797136306762695</v>
+        <v>10.28502082824707</v>
       </c>
       <c r="F81">
-        <v>125872</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>9.790870462918923</v>
+        <v>10.23871781523921</v>
       </c>
       <c r="H81">
-        <v>9.702900314331055</v>
+        <v>10.20947856903076</v>
       </c>
       <c r="I81">
-        <v>9.825230916341146</v>
+        <v>10.23700577418009</v>
       </c>
       <c r="L81">
-        <v>51.57636142014677</v>
+        <v>52.79121151199225</v>
       </c>
       <c r="M81">
-        <v>48.64953356664584</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>52.50348893170905</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>9.797022819519045</v>
+        <v>10.2858943939209</v>
       </c>
       <c r="C82">
-        <v>9.835376739501951</v>
+        <v>10.33492946624756</v>
       </c>
       <c r="D82">
-        <v>9.692253112792969</v>
+        <v>10.26439380645752</v>
       </c>
       <c r="E82">
-        <v>9.692253112792969</v>
+        <v>10.29678153991699</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>9.781905249271107</v>
+        <v>10.24399633566447</v>
       </c>
       <c r="H82">
-        <v>9.695995426177978</v>
+        <v>10.20910243988037</v>
       </c>
       <c r="I82">
-        <v>9.810087490081788</v>
+        <v>10.22289489110311</v>
       </c>
       <c r="L82">
-        <v>47.15806269163721</v>
+        <v>53.63214907379715</v>
       </c>
       <c r="M82">
-        <v>46.01577583025333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>52.95503347099417</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>9.692222595214844</v>
+        <v>10.29641056060791</v>
       </c>
       <c r="C83">
-        <v>9.855692863464355</v>
+        <v>10.29716491699219</v>
       </c>
       <c r="D83">
-        <v>9.592569351196287</v>
+        <v>10.10747337341309</v>
       </c>
       <c r="E83">
-        <v>9.765493392944336</v>
+        <v>10.1126537322998</v>
       </c>
       <c r="F83">
-        <v>401120</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>9.780413262332308</v>
+        <v>10.23205609899495</v>
       </c>
       <c r="H83">
-        <v>9.694245386123658</v>
+        <v>10.20417771339416</v>
       </c>
       <c r="I83">
-        <v>9.785436757405598</v>
+        <v>10.20287545522054</v>
       </c>
       <c r="L83">
-        <v>50.48997912027547</v>
+        <v>40.82381189094353</v>
       </c>
       <c r="M83">
-        <v>48.12762105192692</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>45.63943867094252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>9.767538070678713</v>
+        <v>10.11275768280029</v>
       </c>
       <c r="C84">
-        <v>9.76893424987793</v>
+        <v>10.17209434509277</v>
       </c>
       <c r="D84">
-        <v>9.39993953704834</v>
+        <v>10.08684825897217</v>
       </c>
       <c r="E84">
-        <v>9.640755653381348</v>
+        <v>10.15224075317383</v>
       </c>
       <c r="F84">
-        <v>1718464</v>
+        <v>2506064</v>
       </c>
       <c r="G84">
-        <v>9.767717116064038</v>
+        <v>10.22480015846576</v>
       </c>
       <c r="H84">
-        <v>9.683561849594117</v>
+        <v>10.21051301956177</v>
       </c>
       <c r="I84">
-        <v>9.772051239013672</v>
+        <v>10.18863191604614</v>
       </c>
       <c r="L84">
-        <v>45.0476153182274</v>
+        <v>44.0553696402391</v>
       </c>
       <c r="M84">
-        <v>44.9056006430228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>47.32432507523306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>9.661916732788086</v>
+        <v>10.15246963500977</v>
       </c>
       <c r="C85">
-        <v>9.895536422729492</v>
+        <v>10.16732501983643</v>
       </c>
       <c r="D85">
-        <v>9.641139984130859</v>
+        <v>10.05757141113281</v>
       </c>
       <c r="E85">
-        <v>9.890846252441406</v>
+        <v>10.07162094116211</v>
       </c>
       <c r="F85">
-        <v>4576496</v>
+        <v>313920</v>
       </c>
       <c r="G85">
-        <v>9.778910673916526</v>
+        <v>10.21087477507452</v>
       </c>
       <c r="H85">
-        <v>9.689832973480225</v>
+        <v>10.2060525894165</v>
       </c>
       <c r="I85">
-        <v>9.767158444722494</v>
+        <v>10.17964016596476</v>
       </c>
       <c r="L85">
-        <v>55.7950596992074</v>
+        <v>39.15635561597115</v>
       </c>
       <c r="M85">
-        <v>51.86370212393804</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>44.31213084571253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>9.894245147705078</v>
+        <v>10.07233715057373</v>
       </c>
       <c r="C86">
-        <v>10.60909652709961</v>
+        <v>10.15646648406982</v>
       </c>
       <c r="D86">
-        <v>9.739130020141602</v>
+        <v>10.05750751495361</v>
       </c>
       <c r="E86">
-        <v>10.38111400604248</v>
+        <v>10.14853572845459</v>
       </c>
       <c r="F86">
-        <v>25481440</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>9.833656431382522</v>
+        <v>10.20520758901816</v>
       </c>
       <c r="H86">
-        <v>9.721419382095338</v>
+        <v>10.20531539916992</v>
       </c>
       <c r="I86">
-        <v>9.769489924112955</v>
+        <v>10.17551587422689</v>
       </c>
       <c r="L86">
-        <v>69.11612449435863</v>
+        <v>45.64387817729435</v>
       </c>
       <c r="M86">
-        <v>61.99646624511213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>47.73035722120373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>10.3817949295044</v>
+        <v>10.14849853515625</v>
       </c>
       <c r="C87">
-        <v>10.52577781677246</v>
+        <v>10.22275543212891</v>
       </c>
       <c r="D87">
-        <v>10.30391788482666</v>
+        <v>10.0915937423706</v>
       </c>
       <c r="E87">
-        <v>10.52577781677246</v>
+        <v>10.13939666748047</v>
       </c>
       <c r="F87">
-        <v>16835440</v>
+        <v>1576976</v>
       </c>
       <c r="G87">
-        <v>9.896576557327061</v>
+        <v>10.19922477796928</v>
       </c>
       <c r="H87">
-        <v>9.759292554855346</v>
+        <v>10.20073623657226</v>
       </c>
       <c r="I87">
-        <v>9.783719412485759</v>
+        <v>10.18128732045492</v>
       </c>
       <c r="L87">
-        <v>71.92461492379164</v>
+        <v>45.00245576683604</v>
       </c>
       <c r="M87">
-        <v>64.37917250725383</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>47.35838244098912</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>10.53984451293945</v>
+        <v>10.14010429382324</v>
       </c>
       <c r="C88">
-        <v>10.5683650970459</v>
+        <v>10.16958618164062</v>
       </c>
       <c r="D88">
-        <v>10.26941776275635</v>
+        <v>10.05044841766357</v>
       </c>
       <c r="E88">
-        <v>10.44668579101562</v>
+        <v>10.13508605957031</v>
       </c>
       <c r="F88">
-        <v>14872048</v>
+        <v>2025408</v>
       </c>
       <c r="G88">
-        <v>9.946586487662385</v>
+        <v>10.19339398538755</v>
       </c>
       <c r="H88">
-        <v>9.811241102218627</v>
+        <v>10.19390773773193</v>
       </c>
       <c r="I88">
-        <v>9.806679598490398</v>
+        <v>10.18717133204142</v>
       </c>
       <c r="L88">
-        <v>68.11476608177496</v>
+        <v>44.66936633569419</v>
       </c>
       <c r="M88">
-        <v>62.08721691275509</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>47.17164925724164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>10.44791221618652</v>
+        <v>10.13424491882324</v>
       </c>
       <c r="C89">
-        <v>10.80566501617432</v>
+        <v>10.24704456329346</v>
       </c>
       <c r="D89">
-        <v>10.42362594604492</v>
+        <v>10.11449813842773</v>
       </c>
       <c r="E89">
-        <v>10.80566501617432</v>
+        <v>10.22462844848633</v>
       </c>
       <c r="F89">
-        <v>15285680</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>10.02468453570892</v>
+        <v>10.1962334820329</v>
       </c>
       <c r="H89">
-        <v>9.894961309432983</v>
+        <v>10.20592713356018</v>
       </c>
       <c r="I89">
-        <v>9.835608800252279</v>
+        <v>10.19365320205688</v>
       </c>
       <c r="L89">
-        <v>74.90280746445058</v>
+        <v>52.82854733792763</v>
       </c>
       <c r="M89">
-        <v>67.70667980495213</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>51.45373448588006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>10.80538082122803</v>
+        <v>10.22438335418701</v>
       </c>
       <c r="C90">
-        <v>10.88423252105713</v>
+        <v>10.22701454162598</v>
       </c>
       <c r="D90">
-        <v>10.47421646118164</v>
+        <v>9.999726295471191</v>
       </c>
       <c r="E90">
-        <v>10.56119155883789</v>
+        <v>10.00936889648438</v>
       </c>
       <c r="F90">
-        <v>27009472</v>
+        <v>876056</v>
       </c>
       <c r="G90">
-        <v>10.07345790144792</v>
+        <v>10.17924579243758</v>
       </c>
       <c r="H90">
-        <v>9.957294797897339</v>
+        <v>10.19909663200378</v>
       </c>
       <c r="I90">
-        <v>9.855875015258789</v>
+        <v>10.1924659093221</v>
       </c>
       <c r="L90">
-        <v>64.39895496094638</v>
+        <v>37.76674962608464</v>
       </c>
       <c r="M90">
-        <v>61.06816271548108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>42.5290584360401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>10.56537342071533</v>
+        <v>10.0105152130127</v>
       </c>
       <c r="C91">
-        <v>10.72844982147217</v>
+        <v>10.01784801483154</v>
       </c>
       <c r="D91">
-        <v>10.42394542694092</v>
+        <v>9.891221046447754</v>
       </c>
       <c r="E91">
-        <v>10.72844982147217</v>
+        <v>9.994603157043455</v>
       </c>
       <c r="F91">
-        <v>6686752</v>
+        <v>1493040</v>
       </c>
       <c r="G91">
-        <v>10.13300262145012</v>
+        <v>10.16246009831084</v>
       </c>
       <c r="H91">
-        <v>10.0218035697937</v>
+        <v>10.19651718139648</v>
       </c>
       <c r="I91">
-        <v>9.883207956949869</v>
+        <v>10.18248291015625</v>
       </c>
       <c r="L91">
-        <v>67.86718346006911</v>
+        <v>36.95371042854107</v>
       </c>
       <c r="M91">
-        <v>63.6911298297745</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>41.99102472868643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>10.7298173904419</v>
+        <v>9.994318008422852</v>
       </c>
       <c r="C92">
-        <v>10.77563953399658</v>
+        <v>9.994318008422852</v>
       </c>
       <c r="D92">
-        <v>10.53099346160889</v>
+        <v>9.592656135559082</v>
       </c>
       <c r="E92">
-        <v>10.67288303375244</v>
+        <v>9.592656135559082</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>13000600</v>
       </c>
       <c r="G92">
-        <v>10.18208265893215</v>
+        <v>10.11065973806068</v>
       </c>
       <c r="H92">
-        <v>10.07460632324219</v>
+        <v>10.17226638793945</v>
       </c>
       <c r="I92">
-        <v>9.911292362213135</v>
+        <v>10.15876131057739</v>
       </c>
       <c r="L92">
-        <v>65.48292538973892</v>
+        <v>22.27096952459479</v>
       </c>
       <c r="M92">
-        <v>62.1920147742417</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>30.63092533498365</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>10.66832065582275</v>
+        <v>9.59461784362793</v>
       </c>
       <c r="C93">
-        <v>10.8345947265625</v>
+        <v>9.74443244934082</v>
       </c>
       <c r="D93">
-        <v>10.56181716918945</v>
+        <v>9.591166496276855</v>
       </c>
       <c r="E93">
-        <v>10.72010803222656</v>
+        <v>9.69058322906494</v>
       </c>
       <c r="F93">
-        <v>2930304</v>
+        <v>10037080</v>
       </c>
       <c r="G93">
-        <v>10.23099405650437</v>
+        <v>10.07247096451561</v>
       </c>
       <c r="H93">
-        <v>10.11288805007934</v>
+        <v>10.15264520645142</v>
       </c>
       <c r="I93">
-        <v>9.941946156819661</v>
+        <v>10.14140914281209</v>
       </c>
       <c r="L93">
-        <v>66.60465592320358</v>
+        <v>29.90450555483986</v>
       </c>
       <c r="M93">
-        <v>62.98931966105967</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>35.22849560338649</v>
+      </c>
+      <c r="N93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>10.71799755096436</v>
+        <v>9.690479278564451</v>
       </c>
       <c r="C94">
-        <v>10.93205261230469</v>
+        <v>9.707636833190918</v>
       </c>
       <c r="D94">
-        <v>10.69357490539551</v>
+        <v>9.425392150878906</v>
       </c>
       <c r="E94">
-        <v>10.71323680877686</v>
+        <v>9.517169952392578</v>
       </c>
       <c r="F94">
-        <v>1583280</v>
+        <v>5424608</v>
       </c>
       <c r="G94">
-        <v>10.27483430671096</v>
+        <v>10.02198905432261</v>
       </c>
       <c r="H94">
-        <v>10.1507110118866</v>
+        <v>10.11603174209595</v>
       </c>
       <c r="I94">
-        <v>9.970573170979817</v>
+        <v>10.12446365356445</v>
       </c>
       <c r="L94">
-        <v>66.25222850121307</v>
+        <v>25.01113681714887</v>
       </c>
       <c r="M94">
-        <v>62.78186561424982</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>31.2754630915252</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>10.7129316329956</v>
+        <v>9.51933765411377</v>
       </c>
       <c r="C95">
-        <v>10.7129316329956</v>
+        <v>9.658668518066406</v>
       </c>
       <c r="D95">
-        <v>10.44293022155762</v>
+        <v>9.51933765411377</v>
       </c>
       <c r="E95">
-        <v>10.57954692840576</v>
+        <v>9.639723777770996</v>
       </c>
       <c r="F95">
-        <v>1784848</v>
+        <v>1862192</v>
       </c>
       <c r="G95">
-        <v>10.30253545413776</v>
+        <v>9.987237665545187</v>
       </c>
       <c r="H95">
-        <v>10.18416900634766</v>
+        <v>10.08850927352905</v>
       </c>
       <c r="I95">
-        <v>9.997710609436036</v>
+        <v>10.10709346135457</v>
       </c>
       <c r="L95">
-        <v>59.37539370180789</v>
+        <v>33.64388931339421</v>
       </c>
       <c r="M95">
-        <v>58.72904764565953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>36.68284326265803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>10.57817840576172</v>
+        <v>9.640487670898438</v>
       </c>
       <c r="C96">
-        <v>10.71587085723877</v>
+        <v>9.803848266601562</v>
       </c>
       <c r="D96">
-        <v>10.34137344360352</v>
+        <v>9.624838829040527</v>
       </c>
       <c r="E96">
-        <v>10.34137344360352</v>
+        <v>9.786952018737791</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>206608</v>
       </c>
       <c r="G96">
-        <v>10.30606618045283</v>
+        <v>9.969029879471787</v>
       </c>
       <c r="H96">
-        <v>10.20110626220703</v>
+        <v>10.05767617225647</v>
       </c>
       <c r="I96">
-        <v>10.01744352976481</v>
+        <v>10.09454921086629</v>
       </c>
       <c r="L96">
-        <v>49.15040961437214</v>
+        <v>42.57793377667863</v>
       </c>
       <c r="M96">
-        <v>52.25693093024553</v>
+        <v>42.53269486073505</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4129,34 +4090,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>10.34177112579346</v>
+        <v>9.786901473999023</v>
       </c>
       <c r="C97">
-        <v>10.41810321807861</v>
+        <v>9.878802299499512</v>
       </c>
       <c r="D97">
-        <v>10.0374813079834</v>
+        <v>9.620534896850586</v>
       </c>
       <c r="E97">
-        <v>10.27226448059082</v>
+        <v>9.62483024597168</v>
       </c>
       <c r="F97">
-        <v>12750624</v>
+        <v>6244432</v>
       </c>
       <c r="G97">
-        <v>10.30299329864719</v>
+        <v>9.93773900369905</v>
       </c>
       <c r="H97">
-        <v>10.22114820480347</v>
+        <v>10.02100615501404</v>
       </c>
       <c r="I97">
-        <v>10.03424186706543</v>
+        <v>10.07434422175089</v>
       </c>
       <c r="L97">
-        <v>46.53448891299721</v>
+        <v>36.49151508182747</v>
       </c>
       <c r="M97">
-        <v>50.5172920967627</v>
+        <v>38.33288303336063</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4164,34 +4125,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>10.27200794219971</v>
+        <v>9.622986793518066</v>
       </c>
       <c r="C98">
-        <v>10.31961727142334</v>
+        <v>9.640482902526855</v>
       </c>
       <c r="D98">
-        <v>9.724664688110352</v>
+        <v>9.30508518218994</v>
       </c>
       <c r="E98">
-        <v>9.966253280639648</v>
+        <v>9.634946823120115</v>
       </c>
       <c r="F98">
-        <v>19587584</v>
+        <v>8701152</v>
       </c>
       <c r="G98">
-        <v>10.27238056973741</v>
+        <v>9.910212441828238</v>
       </c>
       <c r="H98">
-        <v>10.234712266922</v>
+        <v>9.982665777206421</v>
       </c>
       <c r="I98">
-        <v>10.05285981496175</v>
+        <v>10.053120581309</v>
       </c>
       <c r="L98">
-        <v>36.78248321154287</v>
+        <v>37.12249756324581</v>
       </c>
       <c r="M98">
-        <v>43.59651864221336</v>
+        <v>38.73938739006128</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4199,34 +4160,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>9.962930679321287</v>
+        <v>9.635472297668455</v>
       </c>
       <c r="C99">
-        <v>9.976784706115724</v>
+        <v>9.718231201171877</v>
       </c>
       <c r="D99">
-        <v>9.699694633483888</v>
+        <v>9.60319709777832</v>
       </c>
       <c r="E99">
-        <v>9.958565711975098</v>
+        <v>9.702434539794922</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>357184</v>
       </c>
       <c r="G99">
-        <v>10.24385194630448</v>
+        <v>9.891323541643391</v>
       </c>
       <c r="H99">
-        <v>10.25586347579956</v>
+        <v>9.952343797683715</v>
       </c>
       <c r="I99">
-        <v>10.08043664296468</v>
+        <v>10.04372704823812</v>
       </c>
       <c r="L99">
-        <v>36.56591255015969</v>
+        <v>41.48556779845706</v>
       </c>
       <c r="M99">
-        <v>43.43552969442341</v>
+        <v>41.50934951755799</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4234,34 +4195,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>9.957740783691406</v>
+        <v>9.704097747802734</v>
       </c>
       <c r="C100">
-        <v>10.11441993713379</v>
+        <v>9.723953247070312</v>
       </c>
       <c r="D100">
-        <v>9.933629035949709</v>
+        <v>9.628908157348633</v>
       </c>
       <c r="E100">
-        <v>10.03017234802246</v>
+        <v>9.645498275756836</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>10.22442652827884</v>
+        <v>9.868975790199158</v>
       </c>
       <c r="H100">
-        <v>10.27448863983154</v>
+        <v>9.920236587524414</v>
       </c>
       <c r="I100">
-        <v>10.1042916615804</v>
+        <v>10.02704435984294</v>
       </c>
       <c r="L100">
-        <v>40.25226463545617</v>
+        <v>38.92219927173239</v>
       </c>
       <c r="M100">
-        <v>45.45594486850487</v>
+        <v>39.87139136377456</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4269,34 +4230,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>10.03022003173828</v>
+        <v>9.645649909973145</v>
       </c>
       <c r="C101">
-        <v>10.09024810791016</v>
+        <v>9.733195304870604</v>
       </c>
       <c r="D101">
-        <v>9.96314811706543</v>
+        <v>9.614406585693359</v>
       </c>
       <c r="E101">
-        <v>10.04498767852783</v>
+        <v>9.689994812011721</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>113896</v>
       </c>
       <c r="G101">
-        <v>10.2081139055742</v>
+        <v>9.852704792182118</v>
       </c>
       <c r="H101">
-        <v>10.2868812084198</v>
+        <v>9.890485286712646</v>
       </c>
       <c r="I101">
-        <v>10.12451543807983</v>
+        <v>10.01517111460368</v>
       </c>
       <c r="L101">
-        <v>41.04965514228925</v>
+        <v>42.06931308043268</v>
       </c>
       <c r="M101">
-        <v>45.88661460794727</v>
+        <v>41.80412066718522</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4304,34 +4265,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>10.04812908172607</v>
+        <v>9.689937591552734</v>
       </c>
       <c r="C102">
-        <v>10.29409313201904</v>
+        <v>9.702383041381836</v>
       </c>
       <c r="D102">
-        <v>10.02764225006104</v>
+        <v>9.628873825073242</v>
       </c>
       <c r="E102">
-        <v>10.29409313201904</v>
+        <v>9.692319869995115</v>
       </c>
       <c r="F102">
-        <v>1268400</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>10.21593019888737</v>
+        <v>9.838124344710574</v>
       </c>
       <c r="H102">
-        <v>10.3169732093811</v>
+        <v>9.860262203216553</v>
       </c>
       <c r="I102">
-        <v>10.14709094365438</v>
+        <v>10.00232604344686</v>
       </c>
       <c r="L102">
-        <v>52.93194796143548</v>
+        <v>42.24425117095454</v>
       </c>
       <c r="M102">
-        <v>52.65558021815709</v>
+        <v>41.90919328447018</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4339,34 +4300,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>10.29364681243896</v>
+        <v>9.692313194274902</v>
       </c>
       <c r="C103">
-        <v>10.3287935256958</v>
+        <v>9.710285186767578</v>
       </c>
       <c r="D103">
-        <v>10.18104648590088</v>
+        <v>9.613836288452148</v>
       </c>
       <c r="E103">
-        <v>10.3043041229248</v>
+        <v>9.652264595031738</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>10.22396419198168</v>
+        <v>9.821228003830679</v>
       </c>
       <c r="H103">
-        <v>10.34391374588013</v>
+        <v>9.83724274635315</v>
       </c>
       <c r="I103">
-        <v>10.15875196456909</v>
+        <v>9.987967967987061</v>
       </c>
       <c r="L103">
-        <v>53.36541808015478</v>
+        <v>39.90853564297952</v>
       </c>
       <c r="M103">
-        <v>52.91557474985097</v>
+        <v>40.55085499218212</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4374,34 +4335,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>10.30271434783936</v>
+        <v>9.652212142944336</v>
       </c>
       <c r="C104">
-        <v>10.30678176879883</v>
+        <v>9.710004806518556</v>
       </c>
       <c r="D104">
-        <v>10.20350742340088</v>
+        <v>9.619369506835938</v>
       </c>
       <c r="E104">
-        <v>10.21114826202393</v>
+        <v>9.702495574951172</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>10.22279910744007</v>
+        <v>9.810434146659816</v>
       </c>
       <c r="H104">
-        <v>10.37243337631226</v>
+        <v>9.814755487442017</v>
       </c>
       <c r="I104">
-        <v>10.16723098754883</v>
+        <v>9.969736512502035</v>
       </c>
       <c r="L104">
-        <v>48.75687531636168</v>
+        <v>44.25673261020951</v>
       </c>
       <c r="M104">
-        <v>50.20672873322766</v>
+        <v>43.04392961151125</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4409,34 +4370,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>10.20991325378418</v>
+        <v>9.70233154296875</v>
       </c>
       <c r="C105">
-        <v>10.21638774871826</v>
+        <v>9.841558456420898</v>
       </c>
       <c r="D105">
-        <v>10.02546787261963</v>
+        <v>9.70233154296875</v>
       </c>
       <c r="E105">
-        <v>10.02553462982178</v>
+        <v>9.832109451293944</v>
       </c>
       <c r="F105">
-        <v>597328</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>10.20486597311113</v>
+        <v>9.812404628899282</v>
       </c>
       <c r="H105">
-        <v>10.37916779518127</v>
+        <v>9.802779912948608</v>
       </c>
       <c r="I105">
-        <v>10.17106924057007</v>
+        <v>9.957801055908202</v>
       </c>
       <c r="L105">
-        <v>40.84934278362532</v>
+        <v>53.93320000810527</v>
       </c>
       <c r="M105">
-        <v>45.23755383476851</v>
+        <v>48.98852227235427</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4444,34 +4405,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>10.02690982818604</v>
+        <v>9.833428382873535</v>
       </c>
       <c r="C106">
-        <v>10.18760681152344</v>
+        <v>9.911121368408203</v>
       </c>
       <c r="D106">
-        <v>9.97386646270752</v>
+        <v>9.784768104553224</v>
       </c>
       <c r="E106">
-        <v>10.16082954406738</v>
+        <v>9.911121368408203</v>
       </c>
       <c r="F106">
-        <v>785312</v>
+        <v>709688</v>
       </c>
       <c r="G106">
-        <v>10.20086266137988</v>
+        <v>9.821378877945547</v>
       </c>
       <c r="H106">
-        <v>10.36815357208252</v>
+        <v>9.790909194946289</v>
       </c>
       <c r="I106">
-        <v>10.17634261449178</v>
+        <v>9.941384633382162</v>
       </c>
       <c r="L106">
-        <v>47.79257259730595</v>
+        <v>58.8338964395524</v>
       </c>
       <c r="M106">
-        <v>49.18545847995388</v>
+        <v>52.25962154203904</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4479,34 +4440,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>10.16036510467529</v>
+        <v>9.911484718322754</v>
       </c>
       <c r="C107">
-        <v>10.29226398468018</v>
+        <v>9.928915023803713</v>
       </c>
       <c r="D107">
-        <v>10.13726711273193</v>
+        <v>9.822247505187988</v>
       </c>
       <c r="E107">
-        <v>10.16327953338623</v>
+        <v>9.86253833770752</v>
       </c>
       <c r="F107">
-        <v>472896</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>10.19744601338046</v>
+        <v>9.825120647014817</v>
       </c>
       <c r="H107">
-        <v>10.35002865791321</v>
+        <v>9.777066278457642</v>
       </c>
       <c r="I107">
-        <v>10.18607107798258</v>
+        <v>9.924861558278401</v>
       </c>
       <c r="L107">
-        <v>47.91711929148072</v>
+        <v>54.80112372029938</v>
       </c>
       <c r="M107">
-        <v>49.25679782010599</v>
+        <v>50.13095099973696</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4514,34 +4475,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>10.16318607330322</v>
+        <v>9.86246395111084</v>
       </c>
       <c r="C108">
-        <v>10.23097991943359</v>
+        <v>9.875113487243652</v>
       </c>
       <c r="D108">
-        <v>10.12392616271973</v>
+        <v>9.791205406188965</v>
       </c>
       <c r="E108">
-        <v>10.23097991943359</v>
+        <v>9.791205406188965</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>500624</v>
       </c>
       <c r="G108">
-        <v>10.20049455029438</v>
+        <v>9.822037443303374</v>
       </c>
       <c r="H108">
-        <v>10.33924336433411</v>
+        <v>9.759872245788575</v>
       </c>
       <c r="I108">
-        <v>10.20393800735474</v>
+        <v>9.904509925842286</v>
       </c>
       <c r="L108">
-        <v>51.51299557825555</v>
+        <v>49.22745087488214</v>
       </c>
       <c r="M108">
-        <v>51.29175464408336</v>
+        <v>47.09754453762467</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4549,34 +4510,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>10.23272323608398</v>
+        <v>9.790934562683104</v>
       </c>
       <c r="C109">
-        <v>10.56049823760986</v>
+        <v>9.804244995117188</v>
       </c>
       <c r="D109">
-        <v>10.22741603851318</v>
+        <v>9.698678016662598</v>
       </c>
       <c r="E109">
-        <v>10.27165603637695</v>
+        <v>9.708130836486816</v>
       </c>
       <c r="F109">
-        <v>17832224</v>
+        <v>1770400</v>
       </c>
       <c r="G109">
-        <v>10.20696377630189</v>
+        <v>9.811682297229142</v>
       </c>
       <c r="H109">
-        <v>10.31254291534424</v>
+        <v>9.734047365188598</v>
       </c>
       <c r="I109">
-        <v>10.22847515741984</v>
+        <v>9.884485149383545</v>
       </c>
       <c r="L109">
-        <v>53.67485474654013</v>
+        <v>43.4389996793995</v>
       </c>
       <c r="M109">
-        <v>52.5236883188453</v>
+        <v>43.77540728469455</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4584,34 +4545,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>10.27096080780029</v>
+        <v>9.708193778991699</v>
       </c>
       <c r="C110">
-        <v>10.35361003875732</v>
+        <v>9.758774757385254</v>
       </c>
       <c r="D110">
-        <v>9.975078582763672</v>
+        <v>9.660141944885254</v>
       </c>
       <c r="E110">
-        <v>9.984240531921388</v>
+        <v>9.747859954833984</v>
       </c>
       <c r="F110">
-        <v>17962448</v>
+        <v>3630936</v>
       </c>
       <c r="G110">
-        <v>10.18671620863093</v>
+        <v>9.80588026610231</v>
       </c>
       <c r="H110">
-        <v>10.28369536399841</v>
+        <v>9.720971918106079</v>
       </c>
       <c r="I110">
-        <v>10.23936087290446</v>
+        <v>9.866492398579915</v>
       </c>
       <c r="L110">
-        <v>39.62923369440851</v>
+        <v>46.80430786498521</v>
       </c>
       <c r="M110">
-        <v>44.04650321705488</v>
+        <v>45.74634901731737</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4619,34 +4580,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>9.984010696411133</v>
+        <v>9.747758865356444</v>
       </c>
       <c r="C111">
-        <v>10.17773056030273</v>
+        <v>9.753238677978516</v>
       </c>
       <c r="D111">
-        <v>9.983682632446287</v>
+        <v>9.631497383117676</v>
       </c>
       <c r="E111">
-        <v>10.1459789276123</v>
+        <v>9.631497383117676</v>
       </c>
       <c r="F111">
-        <v>3058704</v>
+        <v>590944</v>
       </c>
       <c r="G111">
-        <v>10.18301281944742</v>
+        <v>9.790027276740069</v>
       </c>
       <c r="H111">
-        <v>10.25457181930542</v>
+        <v>9.70281662940979</v>
       </c>
       <c r="I111">
-        <v>10.25098896026611</v>
+        <v>9.844708283742269</v>
       </c>
       <c r="L111">
-        <v>48.20907403449722</v>
+        <v>39.13243291126537</v>
       </c>
       <c r="M111">
-        <v>49.03172002445316</v>
+        <v>41.19178183320556</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4654,1768 +4615,1762 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>10.1457109451294</v>
+        <v>9.634312629699709</v>
       </c>
       <c r="C112">
-        <v>10.17617893218994</v>
+        <v>9.654692649841309</v>
       </c>
       <c r="D112">
-        <v>10.00920867919922</v>
+        <v>9.514951705932615</v>
       </c>
       <c r="E112">
-        <v>10.04619216918945</v>
+        <v>9.555576324462891</v>
       </c>
       <c r="F112">
-        <v>3422960</v>
+        <v>5447856</v>
       </c>
       <c r="G112">
-        <v>10.17057457851488</v>
+        <v>9.76871355380578</v>
       </c>
       <c r="H112">
-        <v>10.22323727607727</v>
+        <v>9.70096263885498</v>
       </c>
       <c r="I112">
-        <v>10.26278692881266</v>
+        <v>9.820001443227133</v>
       </c>
       <c r="L112">
-        <v>43.88057673417116</v>
+        <v>34.92987085641911</v>
       </c>
       <c r="M112">
-        <v>46.29139811624294</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>38.49857935642508</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>10.04494762420654</v>
+        <v>9.555015563964844</v>
       </c>
       <c r="C113">
-        <v>10.12651443481445</v>
+        <v>9.636680603027344</v>
       </c>
       <c r="D113">
-        <v>9.994377136230469</v>
+        <v>9.478208541870115</v>
       </c>
       <c r="E113">
-        <v>10.07767200469971</v>
+        <v>9.587995529174805</v>
       </c>
       <c r="F113">
-        <v>3750672</v>
+        <v>5711024</v>
       </c>
       <c r="G113">
-        <v>10.16212888998622</v>
+        <v>9.75228464247569</v>
       </c>
       <c r="H113">
-        <v>10.19111547470093</v>
+        <v>9.695833253860474</v>
       </c>
       <c r="I113">
-        <v>10.27319288253784</v>
+        <v>9.802512836456298</v>
       </c>
       <c r="L113">
-        <v>45.61362452774755</v>
+        <v>38.12217980732256</v>
       </c>
       <c r="M113">
-        <v>47.29218971592525</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>40.29373904030048</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>10.07650279998779</v>
+        <v>9.587918281555176</v>
       </c>
       <c r="C114">
-        <v>10.30440330505371</v>
+        <v>9.592583656311035</v>
       </c>
       <c r="D114">
-        <v>10.0153284072876</v>
+        <v>9.311616897583008</v>
       </c>
       <c r="E114">
-        <v>10.08300685882568</v>
+        <v>9.400555610656738</v>
       </c>
       <c r="F114">
-        <v>24127360</v>
+        <v>10392440</v>
       </c>
       <c r="G114">
-        <v>10.15493597806254</v>
+        <v>9.720309275946693</v>
       </c>
       <c r="H114">
-        <v>10.15960397720337</v>
+        <v>9.690002536773681</v>
       </c>
       <c r="I114">
-        <v>10.28793458938599</v>
+        <v>9.777456665039063</v>
       </c>
       <c r="L114">
-        <v>45.93195675645501</v>
+        <v>28.90000391758852</v>
       </c>
       <c r="M114">
-        <v>47.47082824543222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>34.09681509386461</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>10.08241748809814</v>
+        <v>9.399295806884766</v>
       </c>
       <c r="C115">
-        <v>10.29530239105225</v>
+        <v>9.440629005432127</v>
       </c>
       <c r="D115">
-        <v>10.06909847259522</v>
+        <v>9.201644897460938</v>
       </c>
       <c r="E115">
-        <v>10.24943923950195</v>
+        <v>9.301261901855469</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>9752136</v>
       </c>
       <c r="G115">
-        <v>10.16352718364794</v>
+        <v>9.682214060120218</v>
       </c>
       <c r="H115">
-        <v>10.14309859275818</v>
+        <v>9.673079442977905</v>
       </c>
       <c r="I115">
-        <v>10.29988768895467</v>
+        <v>9.751778030395508</v>
       </c>
       <c r="L115">
-        <v>55.14616236451685</v>
+        <v>25.25853943777506</v>
       </c>
       <c r="M115">
-        <v>52.84073948911558</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>31.34656095366454</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>10.24986267089844</v>
+        <v>9.30311393737793</v>
       </c>
       <c r="C116">
-        <v>10.3123369216919</v>
+        <v>9.328569412231444</v>
       </c>
       <c r="D116">
-        <v>10.1805009841919</v>
+        <v>9.079174995422363</v>
       </c>
       <c r="E116">
-        <v>10.19017314910889</v>
+        <v>9.126715660095217</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>14918992</v>
       </c>
       <c r="G116">
-        <v>10.16594954414439</v>
+        <v>9.631714205572491</v>
       </c>
       <c r="H116">
-        <v>10.13553857803345</v>
+        <v>9.640067625045777</v>
       </c>
       <c r="I116">
-        <v>10.29352299372355</v>
+        <v>9.717717361450195</v>
       </c>
       <c r="L116">
-        <v>51.62186979945432</v>
+        <v>20.22003754467466</v>
       </c>
       <c r="M116">
-        <v>50.84736832421569</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>27.19408674093676</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>10.18700790405273</v>
+        <v>9.128253936767578</v>
       </c>
       <c r="C117">
-        <v>10.40361404418945</v>
+        <v>9.299531936645508</v>
       </c>
       <c r="D117">
-        <v>10.18452453613281</v>
+        <v>9.128253936767578</v>
       </c>
       <c r="E117">
-        <v>10.40361404418945</v>
+        <v>9.179680824279783</v>
       </c>
       <c r="F117">
-        <v>4448224</v>
+        <v>10455024</v>
       </c>
       <c r="G117">
-        <v>10.18755540778485</v>
+        <v>9.590620261818607</v>
       </c>
       <c r="H117">
-        <v>10.14210605621338</v>
+        <v>9.617810153961182</v>
       </c>
       <c r="I117">
-        <v>10.28945086797078</v>
+        <v>9.685726833343505</v>
       </c>
       <c r="L117">
-        <v>61.5719918788535</v>
+        <v>25.30641778308628</v>
       </c>
       <c r="M117">
-        <v>57.12101201424399</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>30.21503583344764</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>10.40359210968018</v>
+        <v>9.18093967437744</v>
       </c>
       <c r="C118">
-        <v>10.44453525543213</v>
+        <v>9.321904182434082</v>
       </c>
       <c r="D118">
-        <v>10.34212398529053</v>
+        <v>9.108250617980955</v>
       </c>
       <c r="E118">
-        <v>10.35823059082031</v>
+        <v>9.289529800415041</v>
       </c>
       <c r="F118">
-        <v>457056</v>
+        <v>3563536</v>
       </c>
       <c r="G118">
-        <v>10.20307133351534</v>
+        <v>9.563248401691011</v>
       </c>
       <c r="H118">
-        <v>10.16170492172241</v>
+        <v>9.600539302825927</v>
       </c>
       <c r="I118">
-        <v>10.28650236129761</v>
+        <v>9.657541624704997</v>
       </c>
       <c r="L118">
-        <v>58.68478897390061</v>
+        <v>34.9786980041124</v>
       </c>
       <c r="M118">
-        <v>55.49896823038305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>36.13388939908547</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>10.35763835906982</v>
+        <v>9.287681579589844</v>
       </c>
       <c r="C119">
-        <v>10.56607532501221</v>
+        <v>9.30369758605957</v>
       </c>
       <c r="D119">
-        <v>10.32926940917969</v>
+        <v>9.08958911895752</v>
       </c>
       <c r="E119">
-        <v>10.40175437927246</v>
+        <v>9.096475601196287</v>
       </c>
       <c r="F119">
-        <v>7546000</v>
+        <v>188864</v>
       </c>
       <c r="G119">
-        <v>10.22113342858417</v>
+        <v>9.520814510736944</v>
       </c>
       <c r="H119">
-        <v>10.18386435508728</v>
+        <v>9.570241355895996</v>
       </c>
       <c r="I119">
-        <v>10.27303867340088</v>
+        <v>9.619936529795329</v>
       </c>
       <c r="L119">
-        <v>60.67432567250594</v>
+        <v>27.8487410136944</v>
       </c>
       <c r="M119">
-        <v>56.76690285863433</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>31.13580329929301</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>10.40353107452393</v>
+        <v>9.099356651306152</v>
       </c>
       <c r="C120">
-        <v>10.41310596466064</v>
+        <v>9.128013610839844</v>
       </c>
       <c r="D120">
-        <v>10.08362579345703</v>
+        <v>8.72957706451416</v>
       </c>
       <c r="E120">
-        <v>10.30887413024902</v>
+        <v>8.82987117767334</v>
       </c>
       <c r="F120">
-        <v>3407232</v>
+        <v>18021088</v>
       </c>
       <c r="G120">
-        <v>10.22910985600825</v>
+        <v>9.458001480458435</v>
       </c>
       <c r="H120">
-        <v>10.19779944419861</v>
+        <v>9.529460000991822</v>
       </c>
       <c r="I120">
-        <v>10.26462809244792</v>
+        <v>9.580619939168294</v>
       </c>
       <c r="L120">
-        <v>54.38673618701782</v>
+        <v>21.15069023344887</v>
       </c>
       <c r="M120">
-        <v>53.278247429498</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>25.8235604059116</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>10.30729866027832</v>
+        <v>8.830910682678223</v>
       </c>
       <c r="C121">
-        <v>10.31683540344238</v>
+        <v>9.109687805175779</v>
       </c>
       <c r="D121">
-        <v>10.14854335784912</v>
+        <v>8.740056991577148</v>
       </c>
       <c r="E121">
-        <v>10.28764247894287</v>
+        <v>9.07398509979248</v>
       </c>
       <c r="F121">
-        <v>1243440</v>
+        <v>9291200</v>
       </c>
       <c r="G121">
-        <v>10.23443100354776</v>
+        <v>9.423090900397893</v>
       </c>
       <c r="H121">
-        <v>10.20993218421936</v>
+        <v>9.49865951538086</v>
       </c>
       <c r="I121">
-        <v>10.24993451436361</v>
+        <v>9.549932670593261</v>
       </c>
       <c r="L121">
-        <v>52.97496971974892</v>
+        <v>36.80700454402937</v>
       </c>
       <c r="M121">
-        <v>52.48421783191924</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>36.50578886505215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>10.29500484466553</v>
+        <v>9.084508895874023</v>
       </c>
       <c r="C122">
-        <v>10.37992668151856</v>
+        <v>9.142390251159668</v>
       </c>
       <c r="D122">
-        <v>10.28502082824707</v>
+        <v>9.005456924438477</v>
       </c>
       <c r="E122">
-        <v>10.28502082824707</v>
+        <v>9.024628639221191</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>10.23903007852042</v>
+        <v>9.386867058472738</v>
       </c>
       <c r="H122">
-        <v>10.20947856903076</v>
+        <v>9.465274953842163</v>
       </c>
       <c r="I122">
-        <v>10.23700577418009</v>
+        <v>9.530998420715331</v>
       </c>
       <c r="L122">
-        <v>52.7846337131135</v>
+        <v>35.21647584024448</v>
       </c>
       <c r="M122">
-        <v>52.38040969693698</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>35.3958864050785</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>10.2858943939209</v>
+        <v>9.021759033203123</v>
       </c>
       <c r="C123">
-        <v>10.33492946624756</v>
+        <v>9.217159271240234</v>
       </c>
       <c r="D123">
-        <v>10.26439380645752</v>
+        <v>8.973044395446777</v>
       </c>
       <c r="E123">
-        <v>10.29678153991699</v>
+        <v>9.217159271240234</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>10.24428021137466</v>
+        <v>9.371439077815237</v>
       </c>
       <c r="H123">
-        <v>10.20910243988037</v>
+        <v>9.443519687652588</v>
       </c>
       <c r="I123">
-        <v>10.22289489110311</v>
+        <v>9.515217622121176</v>
       </c>
       <c r="L123">
-        <v>53.62552630921934</v>
+        <v>45.54337845432341</v>
       </c>
       <c r="M123">
-        <v>52.83112431455402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>42.71269926812691</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>10.29641056060791</v>
+        <v>9.217483520507812</v>
       </c>
       <c r="C124">
-        <v>10.29716491699219</v>
+        <v>9.263458251953123</v>
       </c>
       <c r="D124">
-        <v>10.10747337341309</v>
+        <v>9.149293899536133</v>
       </c>
       <c r="E124">
-        <v>10.1126537322998</v>
+        <v>9.15200138092041</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>10.2323141678224</v>
+        <v>9.351490196279343</v>
       </c>
       <c r="H124">
-        <v>10.20417771339416</v>
+        <v>9.415994977951049</v>
       </c>
       <c r="I124">
-        <v>10.20287545522054</v>
+        <v>9.503045336405437</v>
       </c>
       <c r="L124">
-        <v>40.82065010423152</v>
+        <v>42.93745581019035</v>
       </c>
       <c r="M124">
-        <v>45.56045338853031</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>41.01951525058173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>10.11275768280029</v>
+        <v>9.151758193969728</v>
       </c>
       <c r="C125">
-        <v>10.17209434509277</v>
+        <v>9.276843070983888</v>
       </c>
       <c r="D125">
-        <v>10.08684825897217</v>
+        <v>9.151758193969728</v>
       </c>
       <c r="E125">
-        <v>10.15224075317383</v>
+        <v>9.225818634033203</v>
       </c>
       <c r="F125">
-        <v>2506064</v>
+        <v>1673632</v>
       </c>
       <c r="G125">
-        <v>10.22503476649071</v>
+        <v>9.340065508802422</v>
       </c>
       <c r="H125">
-        <v>10.21051301956177</v>
+        <v>9.385680437088013</v>
       </c>
       <c r="I125">
-        <v>10.18863191604614</v>
+        <v>9.489248498280842</v>
       </c>
       <c r="L125">
-        <v>44.05193216659831</v>
+        <v>46.81593272900295</v>
       </c>
       <c r="M125">
-        <v>47.24155792294432</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>43.74045489267668</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>10.15246963500977</v>
+        <v>9.225675582885742</v>
       </c>
       <c r="C126">
-        <v>10.16732501983643</v>
+        <v>9.33579158782959</v>
       </c>
       <c r="D126">
-        <v>10.05757141113281</v>
+        <v>9.225675582885742</v>
       </c>
       <c r="E126">
-        <v>10.07162094116211</v>
+        <v>9.279227256774902</v>
       </c>
       <c r="F126">
-        <v>313920</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>10.2110880550972</v>
+        <v>9.334534758618101</v>
       </c>
       <c r="H126">
-        <v>10.2060525894165</v>
+        <v>9.354085731506348</v>
       </c>
       <c r="I126">
-        <v>10.17964016596476</v>
+        <v>9.472324339548747</v>
       </c>
       <c r="L126">
-        <v>39.15390443454469</v>
+        <v>49.60405426379852</v>
       </c>
       <c r="M126">
-        <v>44.24502981080055</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>45.69258119936159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>10.07233715057373</v>
+        <v>9.280477523803713</v>
       </c>
       <c r="C127">
-        <v>10.15646648406982</v>
+        <v>9.344344139099119</v>
       </c>
       <c r="D127">
-        <v>10.05750751495361</v>
+        <v>9.178340911865234</v>
       </c>
       <c r="E127">
-        <v>10.14853572845459</v>
+        <v>9.32218074798584</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>10.20540147994787</v>
+        <v>9.333411666742441</v>
       </c>
       <c r="H127">
-        <v>10.20531539916992</v>
+        <v>9.327067852020264</v>
       </c>
       <c r="I127">
-        <v>10.17551587422689</v>
+        <v>9.462236022949218</v>
       </c>
       <c r="L127">
-        <v>45.64097365099656</v>
+        <v>51.88618018213419</v>
       </c>
       <c r="M127">
-        <v>47.65626452996873</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>47.27704816177417</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>10.14849853515625</v>
+        <v>9.32349967956543</v>
       </c>
       <c r="C128">
-        <v>10.22275543212891</v>
+        <v>9.355792999267578</v>
       </c>
       <c r="D128">
-        <v>10.0915937423706</v>
+        <v>9.211586952209473</v>
       </c>
       <c r="E128">
-        <v>10.13939666748047</v>
+        <v>9.235109329223633</v>
       </c>
       <c r="F128">
-        <v>1576976</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>10.19940104245083</v>
+        <v>9.324475090604368</v>
       </c>
       <c r="H128">
-        <v>10.20073623657226</v>
+        <v>9.299263048171998</v>
       </c>
       <c r="I128">
-        <v>10.18128732045492</v>
+        <v>9.448908106486003</v>
       </c>
       <c r="L128">
-        <v>44.99966171999047</v>
+        <v>47.02945403762582</v>
       </c>
       <c r="M128">
-        <v>47.2860635265742</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>44.44617596031871</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>10.14010429382324</v>
+        <v>9.236501693725586</v>
       </c>
       <c r="C129">
-        <v>10.16958618164062</v>
+        <v>9.358110427856444</v>
       </c>
       <c r="D129">
-        <v>10.05044841766357</v>
+        <v>9.221685409545898</v>
       </c>
       <c r="E129">
-        <v>10.13508605957031</v>
+        <v>9.346615791320801</v>
       </c>
       <c r="F129">
-        <v>2025408</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>10.19355422582533</v>
+        <v>9.326487881578588</v>
       </c>
       <c r="H129">
-        <v>10.19390773773193</v>
+        <v>9.281187295913696</v>
       </c>
       <c r="I129">
-        <v>10.18717133204142</v>
+        <v>9.437047481536865</v>
       </c>
       <c r="L129">
-        <v>44.66662887732789</v>
+        <v>53.32397543235597</v>
       </c>
       <c r="M129">
-        <v>47.10021372506058</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>48.68389982699148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>10.13424491882324</v>
+        <v>9.344584465026855</v>
       </c>
       <c r="C130">
-        <v>10.24704456329346</v>
+        <v>9.345619201660156</v>
       </c>
       <c r="D130">
-        <v>10.11449813842773</v>
+        <v>9.227073669433594</v>
       </c>
       <c r="E130">
-        <v>10.22462844848633</v>
+        <v>9.239372253417969</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>127696</v>
       </c>
       <c r="G130">
-        <v>10.19637915515815</v>
+        <v>9.318568279018532</v>
       </c>
       <c r="H130">
-        <v>10.20592713356018</v>
+        <v>9.255762910842895</v>
       </c>
       <c r="I130">
-        <v>10.19365320205688</v>
+        <v>9.423509947458903</v>
       </c>
       <c r="L130">
-        <v>52.82546357567225</v>
+        <v>47.24900026408981</v>
       </c>
       <c r="M130">
-        <v>51.37544323748601</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>45.11910186485706</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>10.22438335418701</v>
+        <v>9.239217758178713</v>
       </c>
       <c r="C131">
-        <v>10.22701454162598</v>
+        <v>9.243171691894531</v>
       </c>
       <c r="D131">
-        <v>9.999726295471191</v>
+        <v>9.165280342102051</v>
       </c>
       <c r="E131">
-        <v>10.00936889648438</v>
+        <v>9.233780860900881</v>
       </c>
       <c r="F131">
-        <v>876056</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>10.17937822255144</v>
+        <v>9.310860331916926</v>
       </c>
       <c r="H131">
-        <v>10.19909663200378</v>
+        <v>9.235877084732056</v>
       </c>
       <c r="I131">
-        <v>10.1924659093221</v>
+        <v>9.408302815755208</v>
       </c>
       <c r="L131">
-        <v>37.76553471953084</v>
+        <v>46.9353659538938</v>
       </c>
       <c r="M131">
-        <v>42.48608058384713</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>44.93436155496421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>10.0105152130127</v>
+        <v>9.234151840209959</v>
       </c>
       <c r="C132">
-        <v>10.01784801483154</v>
+        <v>9.296630859375</v>
       </c>
       <c r="D132">
-        <v>9.891221046447754</v>
+        <v>9.159889221191406</v>
       </c>
       <c r="E132">
-        <v>9.994603157043455</v>
+        <v>9.279187202453612</v>
       </c>
       <c r="F132">
-        <v>1493040</v>
+        <v>440256</v>
       </c>
       <c r="G132">
-        <v>10.16258048932344</v>
+        <v>9.30798095651117</v>
       </c>
       <c r="H132">
-        <v>10.19651718139648</v>
+        <v>9.222057628631593</v>
       </c>
       <c r="I132">
-        <v>10.18248291015625</v>
+        <v>9.394531726837158</v>
       </c>
       <c r="L132">
-        <v>36.95257394946077</v>
+        <v>49.96936876159086</v>
       </c>
       <c r="M132">
-        <v>41.94988495601671</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>46.83799695285196</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>9.994318008422852</v>
+        <v>9.282016754150391</v>
       </c>
       <c r="C133">
-        <v>9.994318008422852</v>
+        <v>9.305830955505373</v>
       </c>
       <c r="D133">
-        <v>9.592656135559082</v>
+        <v>9.076936721801758</v>
       </c>
       <c r="E133">
-        <v>9.592656135559082</v>
+        <v>9.100631713867188</v>
       </c>
       <c r="F133">
-        <v>13000600</v>
+        <v>1012480</v>
       </c>
       <c r="G133">
-        <v>10.11076918443577</v>
+        <v>9.289131025361716</v>
       </c>
       <c r="H133">
-        <v>10.17226638793945</v>
+        <v>9.197689437866211</v>
       </c>
       <c r="I133">
-        <v>10.15876131057739</v>
+        <v>9.376143964131673</v>
       </c>
       <c r="L133">
-        <v>22.27085354039183</v>
+        <v>39.8816468116968</v>
       </c>
       <c r="M133">
-        <v>30.62086479927656</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>40.85655114303169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>9.59461784362793</v>
+        <v>9.099233627319336</v>
       </c>
       <c r="C134">
-        <v>9.74443244934082</v>
+        <v>9.267899513244627</v>
       </c>
       <c r="D134">
-        <v>9.591166496276855</v>
+        <v>9.063590049743652</v>
       </c>
       <c r="E134">
-        <v>9.69058322906494</v>
+        <v>9.252345085144045</v>
       </c>
       <c r="F134">
-        <v>10037080</v>
+        <v>1731992</v>
       </c>
       <c r="G134">
-        <v>10.07257046122024</v>
+        <v>9.28578684897829</v>
       </c>
       <c r="H134">
-        <v>10.15264520645142</v>
+        <v>9.190278911590577</v>
       </c>
       <c r="I134">
-        <v>10.14140914281209</v>
+        <v>9.361138947804768</v>
       </c>
       <c r="L134">
-        <v>29.9041342091452</v>
+        <v>49.60619754155668</v>
       </c>
       <c r="M134">
-        <v>35.21155381005595</v>
-      </c>
-      <c r="N134" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>47.04459636898562</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>9.690479278564451</v>
+        <v>9.253182411193848</v>
       </c>
       <c r="C135">
-        <v>9.707636833190918</v>
+        <v>9.269901275634766</v>
       </c>
       <c r="D135">
-        <v>9.425392150878906</v>
+        <v>9.207052230834959</v>
       </c>
       <c r="E135">
-        <v>9.517169952392578</v>
+        <v>9.224373817443848</v>
       </c>
       <c r="F135">
-        <v>5424608</v>
+        <v>656952</v>
       </c>
       <c r="G135">
-        <v>10.02207950587227</v>
+        <v>9.280203846111522</v>
       </c>
       <c r="H135">
-        <v>10.11603174209595</v>
+        <v>9.186434507369995</v>
       </c>
       <c r="I135">
-        <v>10.12446365356445</v>
+        <v>9.340881093343098</v>
       </c>
       <c r="L135">
-        <v>25.01096925140123</v>
+        <v>47.99589535885468</v>
       </c>
       <c r="M135">
-        <v>31.26618144826615</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>46.08718195709031</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>9.51933765411377</v>
+        <v>9.224714279174805</v>
       </c>
       <c r="C136">
-        <v>9.658668518066406</v>
+        <v>9.338447570800779</v>
       </c>
       <c r="D136">
-        <v>9.51933765411377</v>
+        <v>9.172390937805176</v>
       </c>
       <c r="E136">
-        <v>9.639723777770996</v>
+        <v>9.333211898803713</v>
       </c>
       <c r="F136">
-        <v>1862192</v>
+        <v>1351744</v>
       </c>
       <c r="G136">
-        <v>9.987319894226703</v>
+        <v>9.28502275999263</v>
       </c>
       <c r="H136">
-        <v>10.08850927352905</v>
+        <v>9.19675931930542</v>
       </c>
       <c r="I136">
-        <v>10.10709346135457</v>
+        <v>9.321617444356283</v>
       </c>
       <c r="L136">
-        <v>33.64351777509363</v>
+        <v>54.46622426132461</v>
       </c>
       <c r="M136">
-        <v>36.66702856014128</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>50.32355444060499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>9.640487670898438</v>
+        <v>9.333043098449709</v>
       </c>
       <c r="C137">
-        <v>9.803848266601562</v>
+        <v>9.34945011138916</v>
       </c>
       <c r="D137">
-        <v>9.624838829040527</v>
+        <v>9.26341724395752</v>
       </c>
       <c r="E137">
-        <v>9.786952018737791</v>
+        <v>9.275960922241213</v>
       </c>
       <c r="F137">
-        <v>206608</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>9.969104632818619</v>
+        <v>9.284198956560683</v>
       </c>
       <c r="H137">
-        <v>10.05767617225647</v>
+        <v>9.201573324203491</v>
       </c>
       <c r="I137">
-        <v>10.09454921086629</v>
+        <v>9.302064863840739</v>
       </c>
       <c r="L137">
-        <v>42.57741231396463</v>
+        <v>50.73099984313845</v>
       </c>
       <c r="M137">
-        <v>42.51120784246446</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>48.17895500897987</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>9.786901473999023</v>
+        <v>9.27546501159668</v>
       </c>
       <c r="C138">
-        <v>9.878802299499512</v>
+        <v>9.55082893371582</v>
       </c>
       <c r="D138">
-        <v>9.620534896850586</v>
+        <v>9.27546501159668</v>
       </c>
       <c r="E138">
-        <v>9.62483024597168</v>
+        <v>9.55082893371582</v>
       </c>
       <c r="F138">
-        <v>6244432</v>
+        <v>3782872</v>
       </c>
       <c r="G138">
-        <v>9.937806961287079</v>
+        <v>9.308438045392968</v>
       </c>
       <c r="H138">
-        <v>10.02100615501404</v>
+        <v>9.214638280868531</v>
       </c>
       <c r="I138">
-        <v>10.07434422175089</v>
+        <v>9.2940523147583</v>
       </c>
       <c r="L138">
-        <v>36.49118490398599</v>
+        <v>64.04799785795794</v>
       </c>
       <c r="M138">
-        <v>38.3181304233628</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>57.5357006871277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>9.622986793518066</v>
+        <v>9.550698280334473</v>
       </c>
       <c r="C139">
-        <v>9.640482902526855</v>
+        <v>9.660943031311035</v>
       </c>
       <c r="D139">
-        <v>9.30508518218994</v>
+        <v>9.516347885131836</v>
       </c>
       <c r="E139">
-        <v>9.634946823120115</v>
+        <v>9.660201072692873</v>
       </c>
       <c r="F139">
-        <v>8701152</v>
+        <v>104912</v>
       </c>
       <c r="G139">
-        <v>9.910274221453719</v>
+        <v>9.340416502420231</v>
       </c>
       <c r="H139">
-        <v>9.982665777206421</v>
+        <v>9.242824554443359</v>
       </c>
       <c r="I139">
-        <v>10.053120581309</v>
+        <v>9.29245465596517</v>
       </c>
       <c r="L139">
-        <v>37.12215868308024</v>
+        <v>67.92849169935577</v>
       </c>
       <c r="M139">
-        <v>38.72428816806887</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>60.58530841749376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>9.635472297668455</v>
+        <v>9.660788536071776</v>
       </c>
       <c r="C140">
-        <v>9.718231201171877</v>
+        <v>9.73947048187256</v>
       </c>
       <c r="D140">
-        <v>9.60319709777832</v>
+        <v>9.660788536071776</v>
       </c>
       <c r="E140">
-        <v>9.702434539794922</v>
+        <v>9.691754341125488</v>
       </c>
       <c r="F140">
-        <v>357184</v>
+        <v>2595720</v>
       </c>
       <c r="G140">
-        <v>9.891379704939283</v>
+        <v>9.37235630593889</v>
       </c>
       <c r="H140">
-        <v>9.952343797683715</v>
+        <v>9.285918712615967</v>
       </c>
       <c r="I140">
-        <v>10.04372704823812</v>
+        <v>9.290584468841553</v>
       </c>
       <c r="L140">
-        <v>41.48517532497202</v>
+        <v>69.01396728925101</v>
       </c>
       <c r="M140">
-        <v>41.4920451084371</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>61.44554307848886</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>9.704097747802734</v>
+        <v>9.691736221313477</v>
       </c>
       <c r="C141">
-        <v>9.723953247070312</v>
+        <v>9.721606254577637</v>
       </c>
       <c r="D141">
-        <v>9.628908157348633</v>
+        <v>9.61002254486084</v>
       </c>
       <c r="E141">
-        <v>9.645498275756836</v>
+        <v>9.634528160095217</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>3153496</v>
       </c>
       <c r="G141">
-        <v>9.869026847740878</v>
+        <v>9.396190110862193</v>
       </c>
       <c r="H141">
-        <v>9.920236587524414</v>
+        <v>9.313945865631103</v>
       </c>
       <c r="I141">
-        <v>10.02704435984294</v>
+        <v>9.290685494740805</v>
       </c>
       <c r="L141">
-        <v>38.92187355138967</v>
+        <v>64.55596786579409</v>
       </c>
       <c r="M141">
-        <v>39.85640908637063</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>58.93333882362391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>9.645649909973145</v>
+        <v>9.633260726928713</v>
       </c>
       <c r="C142">
-        <v>9.733195304870604</v>
+        <v>9.648680686950684</v>
       </c>
       <c r="D142">
-        <v>9.614406585693359</v>
+        <v>9.604516983032228</v>
       </c>
       <c r="E142">
-        <v>9.689994812011721</v>
+        <v>9.60794162750244</v>
       </c>
       <c r="F142">
-        <v>113896</v>
+        <v>433352</v>
       </c>
       <c r="G142">
-        <v>9.852751208129137</v>
+        <v>9.415440248738578</v>
       </c>
       <c r="H142">
-        <v>9.890485286712646</v>
+        <v>9.343111515045166</v>
       </c>
       <c r="I142">
-        <v>10.01517111460368</v>
+        <v>9.292431004842122</v>
       </c>
       <c r="L142">
-        <v>42.068954649852</v>
+        <v>62.44763833626709</v>
       </c>
       <c r="M142">
-        <v>41.78774652362928</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>57.75197672588629</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>9.689937591552734</v>
+        <v>9.607429504394531</v>
       </c>
       <c r="C143">
-        <v>9.702383041381836</v>
+        <v>9.643631935119627</v>
       </c>
       <c r="D143">
-        <v>9.628873825073242</v>
+        <v>9.466952323913574</v>
       </c>
       <c r="E143">
-        <v>9.692319869995115</v>
+        <v>9.485984802246094</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>3207440</v>
       </c>
       <c r="G143">
-        <v>9.838166541026045</v>
+        <v>9.421853389966534</v>
       </c>
       <c r="H143">
-        <v>9.860262203216553</v>
+        <v>9.356552791595458</v>
       </c>
       <c r="I143">
-        <v>10.00232604344686</v>
+        <v>9.289030647277832</v>
       </c>
       <c r="L143">
-        <v>42.24389107988014</v>
+        <v>53.44080691449791</v>
       </c>
       <c r="M143">
-        <v>41.8927470352068</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>52.54830608293971</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>9.692313194274902</v>
+        <v>9.486998558044434</v>
       </c>
       <c r="C144">
-        <v>9.710285186767578</v>
+        <v>9.548274993896484</v>
       </c>
       <c r="D144">
-        <v>9.613836288452148</v>
+        <v>9.445755004882812</v>
       </c>
       <c r="E144">
-        <v>9.652264595031738</v>
+        <v>9.520074844360352</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1283816</v>
       </c>
       <c r="G144">
-        <v>9.821266364117472</v>
+        <v>9.430782613093244</v>
       </c>
       <c r="H144">
-        <v>9.83724274635315</v>
+        <v>9.374956464767456</v>
       </c>
       <c r="I144">
-        <v>9.987967967987061</v>
+        <v>9.293014621734619</v>
       </c>
       <c r="L144">
-        <v>39.908230058245</v>
+        <v>55.46090008986702</v>
       </c>
       <c r="M144">
-        <v>40.53621271381187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>53.80138385003102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>9.652212142944336</v>
+        <v>9.519523620605469</v>
       </c>
       <c r="C145">
-        <v>9.710004806518556</v>
+        <v>9.546297073364258</v>
       </c>
       <c r="D145">
-        <v>9.619369506835938</v>
+        <v>9.478838920593262</v>
       </c>
       <c r="E145">
-        <v>9.702495574951172</v>
+        <v>9.528046607971191</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>9.810469019647808</v>
+        <v>9.439624794445784</v>
       </c>
       <c r="H145">
-        <v>9.814755487442017</v>
+        <v>9.390067863464356</v>
       </c>
       <c r="I145">
-        <v>9.969736512502035</v>
+        <v>9.300574111938477</v>
       </c>
       <c r="L145">
-        <v>44.25638939142627</v>
+        <v>55.96354089681309</v>
       </c>
       <c r="M145">
-        <v>43.02766504624703</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>54.10658644612922</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>9.70233154296875</v>
+        <v>9.527705192565918</v>
       </c>
       <c r="C146">
-        <v>9.841558456420898</v>
+        <v>9.71159553527832</v>
       </c>
       <c r="D146">
-        <v>9.70233154296875</v>
+        <v>9.521002769470217</v>
       </c>
       <c r="E146">
-        <v>9.832109451293944</v>
+        <v>9.694523811340332</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>965064</v>
       </c>
       <c r="G146">
-        <v>9.812436331615638</v>
+        <v>9.462797432345289</v>
       </c>
       <c r="H146">
-        <v>9.802779912948608</v>
+        <v>9.410832691192628</v>
       </c>
       <c r="I146">
-        <v>9.957801055908202</v>
+        <v>9.319501050313313</v>
       </c>
       <c r="L146">
-        <v>53.93280648981757</v>
+        <v>65.19232027836487</v>
       </c>
       <c r="M146">
-        <v>48.9691787827069</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>60.04315501677063</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>9.833428382873535</v>
+        <v>9.693955421447754</v>
       </c>
       <c r="C147">
-        <v>9.911121368408203</v>
+        <v>9.724892616271973</v>
       </c>
       <c r="D147">
-        <v>9.784768104553224</v>
+        <v>9.66969108581543</v>
       </c>
       <c r="E147">
-        <v>9.911121368408203</v>
+        <v>9.674213409423828</v>
       </c>
       <c r="F147">
-        <v>709688</v>
+        <v>259824</v>
       </c>
       <c r="G147">
-        <v>9.821407698596779</v>
+        <v>9.482017066625156</v>
       </c>
       <c r="H147">
-        <v>9.790909194946289</v>
+        <v>9.428434324264526</v>
       </c>
       <c r="I147">
-        <v>9.941384633382162</v>
+        <v>9.335985469818116</v>
       </c>
       <c r="L147">
-        <v>58.83349505585633</v>
+        <v>63.36956294748595</v>
       </c>
       <c r="M147">
-        <v>52.23905830395357</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>59.039745915445</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>9.911484718322754</v>
+        <v>9.673336982727051</v>
       </c>
       <c r="C148">
-        <v>9.928915023803713</v>
+        <v>9.736832618713381</v>
       </c>
       <c r="D148">
-        <v>9.822247505187988</v>
+        <v>9.67332649230957</v>
       </c>
       <c r="E148">
-        <v>9.86253833770752</v>
+        <v>9.736832618713381</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>3270160</v>
       </c>
       <c r="G148">
-        <v>9.825146847606845</v>
+        <v>9.505182116814995</v>
       </c>
       <c r="H148">
-        <v>9.777066278457642</v>
+        <v>9.453520488739013</v>
       </c>
       <c r="I148">
-        <v>9.924861558278401</v>
+        <v>9.350895563761393</v>
       </c>
       <c r="L148">
-        <v>54.80078796567405</v>
+        <v>66.60787065377902</v>
       </c>
       <c r="M148">
-        <v>50.11275994775945</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>61.19301440902913</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>9.86246395111084</v>
+        <v>9.73686695098877</v>
       </c>
       <c r="C149">
-        <v>9.875113487243652</v>
+        <v>9.757541656494141</v>
       </c>
       <c r="D149">
-        <v>9.791205406188965</v>
+        <v>9.564414024353027</v>
       </c>
       <c r="E149">
-        <v>9.791205406188965</v>
+        <v>9.56535530090332</v>
       </c>
       <c r="F149">
-        <v>500624</v>
+        <v>3546960</v>
       </c>
       <c r="G149">
-        <v>9.8220612620234</v>
+        <v>9.510652406277568</v>
       </c>
       <c r="H149">
-        <v>9.759872245788575</v>
+        <v>9.464457464218139</v>
       </c>
       <c r="I149">
-        <v>9.904509925842286</v>
+        <v>9.36652488708496</v>
       </c>
       <c r="L149">
-        <v>49.2271965912567</v>
+        <v>52.35026696849538</v>
       </c>
       <c r="M149">
-        <v>47.0825088782469</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>52.97953010108902</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>9.790934562683104</v>
+        <v>9.565360069274902</v>
       </c>
       <c r="C150">
-        <v>9.804244995117188</v>
+        <v>9.639179229736328</v>
       </c>
       <c r="D150">
-        <v>9.698678016662598</v>
+        <v>9.542346000671388</v>
       </c>
       <c r="E150">
-        <v>9.708130836486816</v>
+        <v>9.566956520080566</v>
       </c>
       <c r="F150">
-        <v>1770400</v>
+        <v>3332320</v>
       </c>
       <c r="G150">
-        <v>9.811703950610983</v>
+        <v>9.515770962077841</v>
       </c>
       <c r="H150">
-        <v>9.734047365188598</v>
+        <v>9.48083667755127</v>
       </c>
       <c r="I150">
-        <v>9.884485149383545</v>
+        <v>9.391094398498534</v>
       </c>
       <c r="L150">
-        <v>43.43881866300797</v>
+        <v>52.45717309969224</v>
       </c>
       <c r="M150">
-        <v>43.76352389563412</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>53.04291058323555</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>9.708193778991699</v>
+        <v>9.567054748535156</v>
       </c>
       <c r="C151">
-        <v>9.758774757385254</v>
+        <v>9.572710990905762</v>
       </c>
       <c r="D151">
-        <v>9.660141944885254</v>
+        <v>9.46432399749756</v>
       </c>
       <c r="E151">
-        <v>9.747859954833984</v>
+        <v>9.514157295227051</v>
       </c>
       <c r="F151">
-        <v>3630936</v>
+        <v>7070528</v>
       </c>
       <c r="G151">
-        <v>9.805899950994892</v>
+        <v>9.515624265091404</v>
       </c>
       <c r="H151">
-        <v>9.720971918106079</v>
+        <v>9.494855499267578</v>
       </c>
       <c r="I151">
-        <v>9.866492398579915</v>
+        <v>9.405766805013021</v>
       </c>
       <c r="J151">
-        <v>10.30781567255656</v>
+        <v>9.838083839416504</v>
       </c>
       <c r="L151">
-        <v>46.80411390587589</v>
+        <v>48.42669763321138</v>
       </c>
       <c r="M151">
-        <v>45.73368408686581</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>50.61992133602001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>9.747758865356444</v>
+        <v>9.51385498046875</v>
       </c>
       <c r="C152">
-        <v>9.753238677978516</v>
+        <v>9.56690788269043</v>
       </c>
       <c r="D152">
-        <v>9.631497383117676</v>
+        <v>9.410862922668455</v>
       </c>
       <c r="E152">
-        <v>9.631497383117676</v>
+        <v>9.42628002166748</v>
       </c>
       <c r="F152">
-        <v>590944</v>
+        <v>664288</v>
       </c>
       <c r="G152">
-        <v>9.790045172096962</v>
+        <v>9.507502061143773</v>
       </c>
       <c r="H152">
-        <v>9.70281662940979</v>
+        <v>9.502210140228271</v>
       </c>
       <c r="I152">
-        <v>9.844708283742269</v>
+        <v>9.419155184427897</v>
       </c>
       <c r="J152">
-        <v>10.2988578144183</v>
+        <v>9.832629484214531</v>
       </c>
       <c r="L152">
-        <v>39.13231594187373</v>
+        <v>42.33605233200737</v>
       </c>
       <c r="M152">
-        <v>41.18286978724672</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>46.78901320860132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>9.634312629699709</v>
+        <v>9.426259994506836</v>
       </c>
       <c r="C153">
-        <v>9.654692649841309</v>
+        <v>9.469183921813965</v>
       </c>
       <c r="D153">
-        <v>9.514951705932615</v>
+        <v>9.358603477478027</v>
       </c>
       <c r="E153">
-        <v>9.555576324462891</v>
+        <v>9.422334671020508</v>
       </c>
       <c r="F153">
-        <v>5447856</v>
+        <v>3012632</v>
       </c>
       <c r="G153">
-        <v>9.768729822312046</v>
+        <v>9.499759571132566</v>
       </c>
       <c r="H153">
-        <v>9.70096263885498</v>
+        <v>9.518295288085938</v>
       </c>
       <c r="I153">
-        <v>9.820001443227133</v>
+        <v>9.425994364420573</v>
       </c>
       <c r="J153">
-        <v>10.28901302647187</v>
+        <v>9.827195115827855</v>
       </c>
       <c r="L153">
-        <v>34.92978854835813</v>
+        <v>42.06881306677035</v>
       </c>
       <c r="M153">
-        <v>38.4916273239396</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>46.61843181896047</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>9.555015563964844</v>
+        <v>9.423436164855955</v>
       </c>
       <c r="C154">
-        <v>9.636680603027344</v>
+        <v>9.564704895019531</v>
       </c>
       <c r="D154">
-        <v>9.478208541870115</v>
+        <v>9.39101505279541</v>
       </c>
       <c r="E154">
-        <v>9.587995529174805</v>
+        <v>9.539349555969238</v>
       </c>
       <c r="F154">
-        <v>5711024</v>
+        <v>824776</v>
       </c>
       <c r="G154">
-        <v>9.752299432026842</v>
+        <v>9.503358660663173</v>
       </c>
       <c r="H154">
-        <v>9.695833253860474</v>
+        <v>9.532645511627198</v>
       </c>
       <c r="I154">
-        <v>9.802512836456298</v>
+        <v>9.438905970255535</v>
       </c>
       <c r="J154">
-        <v>10.27972802650767</v>
+        <v>9.823382591856218</v>
       </c>
       <c r="L154">
-        <v>38.12208557366866</v>
+        <v>52.14747337611865</v>
       </c>
       <c r="M154">
-        <v>40.28609836094805</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>52.18620073170774</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>9.587918281555176</v>
+        <v>9.537631988525391</v>
       </c>
       <c r="C155">
-        <v>9.592583656311035</v>
+        <v>9.592818260192873</v>
       </c>
       <c r="D155">
-        <v>9.311616897583008</v>
+        <v>9.515861511230469</v>
       </c>
       <c r="E155">
-        <v>9.400555610656738</v>
+        <v>9.519986152648926</v>
       </c>
       <c r="F155">
-        <v>10392440</v>
+        <v>288848</v>
       </c>
       <c r="G155">
-        <v>9.720322720993195</v>
+        <v>9.504870250843695</v>
       </c>
       <c r="H155">
-        <v>9.690002536773681</v>
+        <v>9.547426128387452</v>
       </c>
       <c r="I155">
-        <v>9.777456665039063</v>
+        <v>9.448711554209391</v>
       </c>
       <c r="J155">
-        <v>10.26808335874805</v>
+        <v>9.819364095972679</v>
       </c>
       <c r="L155">
-        <v>28.89996744062712</v>
+        <v>50.51150905189062</v>
       </c>
       <c r="M155">
-        <v>34.09295329372318</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>51.2339033644589</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>9.399295806884766</v>
+        <v>9.520013809204102</v>
       </c>
       <c r="C156">
-        <v>9.440629005432127</v>
+        <v>9.582906723022459</v>
       </c>
       <c r="D156">
-        <v>9.201644897460938</v>
+        <v>9.466001510620115</v>
       </c>
       <c r="E156">
-        <v>9.301261901855469</v>
+        <v>9.540017127990724</v>
       </c>
       <c r="F156">
-        <v>9752136</v>
+        <v>827960</v>
       </c>
       <c r="G156">
-        <v>9.682226282889765</v>
+        <v>9.508065421493423</v>
       </c>
       <c r="H156">
-        <v>9.673079442977905</v>
+        <v>9.557766389846801</v>
       </c>
       <c r="I156">
-        <v>9.751778030395508</v>
+        <v>9.457404549916586</v>
       </c>
       <c r="J156">
-        <v>10.25527777653756</v>
+        <v>9.81566413613186</v>
       </c>
       <c r="L156">
-        <v>25.25851962211514</v>
+        <v>52.25469670605386</v>
       </c>
       <c r="M156">
-        <v>31.34407314145189</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>52.20553050371352</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>9.30311393737793</v>
+        <v>9.540397644042969</v>
       </c>
       <c r="C157">
-        <v>9.328569412231444</v>
+        <v>9.579059600830078</v>
       </c>
       <c r="D157">
-        <v>9.079174995422363</v>
+        <v>9.411840438842772</v>
       </c>
       <c r="E157">
-        <v>9.126715660095217</v>
+        <v>9.579059600830078</v>
       </c>
       <c r="F157">
-        <v>14918992</v>
+        <v>832960</v>
       </c>
       <c r="G157">
-        <v>9.63172531718117</v>
+        <v>9.514519437796755</v>
       </c>
       <c r="H157">
-        <v>9.640067625045777</v>
+        <v>9.572921323776246</v>
       </c>
       <c r="I157">
-        <v>9.717717361450195</v>
+        <v>9.465967178344727</v>
       </c>
       <c r="J157">
-        <v>10.24032993393567</v>
+        <v>9.8125303012272</v>
       </c>
       <c r="L157">
-        <v>20.2200350456287</v>
+        <v>55.67801203505999</v>
       </c>
       <c r="M157">
-        <v>27.19332030654822</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>54.12413650114658</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>9.128253936767578</v>
+        <v>9.580930709838867</v>
       </c>
       <c r="C158">
-        <v>9.299531936645508</v>
+        <v>9.672571182250977</v>
       </c>
       <c r="D158">
-        <v>9.128253936767578</v>
+        <v>9.571714401245115</v>
       </c>
       <c r="E158">
-        <v>9.179680824279783</v>
+        <v>9.642230033874512</v>
       </c>
       <c r="F158">
-        <v>10455024</v>
+        <v>9161736</v>
       </c>
       <c r="G158">
-        <v>9.590630363281043</v>
+        <v>9.526129491985643</v>
       </c>
       <c r="H158">
-        <v>9.617810153961182</v>
+        <v>9.577491378784179</v>
       </c>
       <c r="I158">
-        <v>9.685726833343505</v>
+        <v>9.479537868499756</v>
       </c>
       <c r="J158">
-        <v>10.22628160135745</v>
+        <v>9.810274668547033</v>
       </c>
       <c r="L158">
-        <v>25.30640281263219</v>
+        <v>60.79471205328016</v>
       </c>
       <c r="M158">
-        <v>30.21333055879378</v>
-      </c>
-      <c r="N158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14">
+        <v>57.12323922332404</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>9.18093967437744</v>
+        <v>9.641728401184082</v>
       </c>
       <c r="C159">
-        <v>9.321904182434082</v>
+        <v>9.689122200012209</v>
       </c>
       <c r="D159">
-        <v>9.108250617980955</v>
+        <v>9.62589168548584</v>
       </c>
       <c r="E159">
-        <v>9.289529800415041</v>
+        <v>9.660748481750488</v>
       </c>
       <c r="F159">
-        <v>3563536</v>
+        <v>967744</v>
       </c>
       <c r="G159">
-        <v>9.563257584838679</v>
+        <v>9.538367581964264</v>
       </c>
       <c r="H159">
-        <v>9.600539302825927</v>
+        <v>9.577518749237061</v>
       </c>
       <c r="I159">
-        <v>9.657541624704997</v>
+        <v>9.490008958180745</v>
       </c>
       <c r="J159">
-        <v>10.21387429273569</v>
+        <v>9.808294189251715</v>
       </c>
       <c r="L159">
-        <v>34.97866406380201</v>
+        <v>62.23261920384433</v>
       </c>
       <c r="M159">
-        <v>36.13058823525727</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>57.99026585027459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>9.287681579589844</v>
+        <v>9.66122341156006</v>
       </c>
       <c r="C160">
-        <v>9.30369758605957</v>
+        <v>9.717514991760254</v>
       </c>
       <c r="D160">
-        <v>9.08958911895752</v>
+        <v>9.584619522094728</v>
       </c>
       <c r="E160">
-        <v>9.096475601196287</v>
+        <v>9.637209892272949</v>
       </c>
       <c r="F160">
-        <v>188864</v>
+        <v>2724360</v>
       </c>
       <c r="G160">
-        <v>9.520822859053007</v>
+        <v>9.54735324653778</v>
       </c>
       <c r="H160">
-        <v>9.570241355895996</v>
+        <v>9.574791526794433</v>
       </c>
       <c r="I160">
-        <v>9.619936529795329</v>
+        <v>9.503270212809245</v>
       </c>
       <c r="J160">
-        <v>10.1990743100663</v>
+        <v>9.806028172073189</v>
       </c>
       <c r="L160">
-        <v>27.84872626270599</v>
+        <v>59.1313981946769</v>
       </c>
       <c r="M160">
-        <v>31.13422512099564</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
+        <v>56.42831248104276</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -6423,40 +6378,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>9.099356651306152</v>
+        <v>9.637133598327637</v>
       </c>
       <c r="C161">
-        <v>9.128013610839844</v>
+        <v>9.671915054321287</v>
       </c>
       <c r="D161">
-        <v>8.72957706451416</v>
+        <v>9.608266830444336</v>
       </c>
       <c r="E161">
-        <v>8.82987117767334</v>
+        <v>9.65041446685791</v>
       </c>
       <c r="F161">
-        <v>18021088</v>
+        <v>774472</v>
       </c>
       <c r="G161">
-        <v>9.458009069836674</v>
+        <v>9.556722448385065</v>
       </c>
       <c r="H161">
-        <v>9.529460000991822</v>
+        <v>9.575585842132568</v>
       </c>
       <c r="I161">
-        <v>9.580619939168294</v>
+        <v>9.517157999674479</v>
       </c>
       <c r="J161">
-        <v>10.1809391692399</v>
+        <v>9.803967063394841</v>
       </c>
       <c r="L161">
-        <v>21.15068778541375</v>
+        <v>60.37749857678684</v>
       </c>
       <c r="M161">
-        <v>25.82336790306048</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
+        <v>57.12595997138281</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -6464,37 +6416,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>8.830910682678223</v>
+        <v>9.649972915649414</v>
       </c>
       <c r="C162">
-        <v>9.109687805175779</v>
+        <v>9.698672294616699</v>
       </c>
       <c r="D162">
-        <v>8.740056991577148</v>
+        <v>9.619759559631348</v>
       </c>
       <c r="E162">
-        <v>9.07398509979248</v>
+        <v>9.688322067260742</v>
       </c>
       <c r="F162">
-        <v>9291200</v>
+        <v>1876280</v>
       </c>
       <c r="G162">
-        <v>9.423097799832657</v>
+        <v>9.568686050101036</v>
       </c>
       <c r="H162">
-        <v>9.49865951538086</v>
+        <v>9.579604864120483</v>
       </c>
       <c r="I162">
-        <v>9.549932670593261</v>
+        <v>9.530795828501384</v>
       </c>
       <c r="J162">
-        <v>10.16627752593596</v>
+        <v>9.802435341591742</v>
       </c>
       <c r="L162">
-        <v>36.80698618092664</v>
+        <v>63.92947530297437</v>
       </c>
       <c r="M162">
-        <v>36.50370226032248</v>
+        <v>59.14818541916804</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -6502,37 +6454,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>9.084508895874023</v>
+        <v>9.68793773651123</v>
       </c>
       <c r="C163">
-        <v>9.142390251159668</v>
+        <v>9.695459365844728</v>
       </c>
       <c r="D163">
-        <v>9.005456924438477</v>
+        <v>9.518510818481444</v>
       </c>
       <c r="E163">
-        <v>9.024628639221191</v>
+        <v>9.59335231781006</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>6915744</v>
       </c>
       <c r="G163">
-        <v>9.386873330686159</v>
+        <v>9.570928438074583</v>
       </c>
       <c r="H163">
-        <v>9.465274953842163</v>
+        <v>9.584973239898682</v>
       </c>
       <c r="I163">
-        <v>9.530998420715331</v>
+        <v>9.547219848632812</v>
       </c>
       <c r="J163">
-        <v>10.15115634862848</v>
+        <v>9.799666030018475</v>
       </c>
       <c r="L163">
-        <v>35.21645986485544</v>
+        <v>51.03490075980107</v>
       </c>
       <c r="M163">
-        <v>35.39405683982066</v>
+        <v>52.47093523221844</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -6540,37 +6492,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>9.021759033203123</v>
+        <v>9.593244552612305</v>
       </c>
       <c r="C164">
-        <v>9.217159271240234</v>
+        <v>9.63838005065918</v>
       </c>
       <c r="D164">
-        <v>8.973044395446777</v>
+        <v>9.555644035339355</v>
       </c>
       <c r="E164">
-        <v>9.217159271240234</v>
+        <v>9.56778049468994</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>824696</v>
       </c>
       <c r="G164">
-        <v>9.371444779827439</v>
+        <v>9.57064226140325</v>
       </c>
       <c r="H164">
-        <v>9.443519687652588</v>
+        <v>9.587358522415162</v>
       </c>
       <c r="I164">
-        <v>9.515217622121176</v>
+        <v>9.557734362284343</v>
       </c>
       <c r="J164">
-        <v>10.13878552641142</v>
+        <v>9.796594698424721</v>
       </c>
       <c r="L164">
-        <v>45.54335632476484</v>
+        <v>48.09626250195021</v>
       </c>
       <c r="M164">
-        <v>42.70994507205159</v>
+        <v>50.80772534444964</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -6578,37 +6530,37 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>9.217483520507812</v>
+        <v>9.566944122314451</v>
       </c>
       <c r="C165">
-        <v>9.263458251953123</v>
+        <v>9.582126617431641</v>
       </c>
       <c r="D165">
-        <v>9.149293899536133</v>
+        <v>9.331722259521484</v>
       </c>
       <c r="E165">
-        <v>9.15200138092041</v>
+        <v>9.408567428588867</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>8923208</v>
       </c>
       <c r="G165">
-        <v>9.351495379926799</v>
+        <v>9.555908185692852</v>
       </c>
       <c r="H165">
-        <v>9.415994977951049</v>
+        <v>9.581384563446045</v>
       </c>
       <c r="I165">
-        <v>9.503045336405437</v>
+        <v>9.56387414932251</v>
       </c>
       <c r="J165">
-        <v>10.12571553772942</v>
+        <v>9.79145526438716</v>
       </c>
       <c r="L165">
-        <v>42.93743701679616</v>
+        <v>34.27322780730633</v>
       </c>
       <c r="M165">
-        <v>41.01712174885541</v>
+        <v>41.90207769131537</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -6616,37 +6568,37 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>9.151758193969728</v>
+        <v>9.411135673522949</v>
       </c>
       <c r="C166">
-        <v>9.276843070983888</v>
+        <v>9.428341865539551</v>
       </c>
       <c r="D166">
-        <v>9.151758193969728</v>
+        <v>9.312981605529783</v>
       </c>
       <c r="E166">
-        <v>9.225818634033203</v>
+        <v>9.35165309906006</v>
       </c>
       <c r="F166">
-        <v>1673632</v>
+        <v>4570928</v>
       </c>
       <c r="G166">
-        <v>9.340070221209199</v>
+        <v>9.537339541453507</v>
       </c>
       <c r="H166">
-        <v>9.385680437088013</v>
+        <v>9.564241027832031</v>
       </c>
       <c r="I166">
-        <v>9.489248498280842</v>
+        <v>9.564488855997721</v>
       </c>
       <c r="J166">
-        <v>10.11379637344205</v>
+        <v>9.785630070144418</v>
       </c>
       <c r="L166">
-        <v>46.81591234160402</v>
+        <v>30.72230445518595</v>
       </c>
       <c r="M166">
-        <v>43.73778623010242</v>
+        <v>39.25333415860745</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -6654,37 +6606,40 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>9.225675582885742</v>
+        <v>9.351474761962891</v>
       </c>
       <c r="C167">
-        <v>9.33579158782959</v>
+        <v>9.426547050476074</v>
       </c>
       <c r="D167">
-        <v>9.225675582885742</v>
+        <v>9.306848526000977</v>
       </c>
       <c r="E167">
-        <v>9.279227256774902</v>
+        <v>9.324233055114746</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>14390440</v>
       </c>
       <c r="G167">
-        <v>9.334539042624263</v>
+        <v>9.51796622451362</v>
       </c>
       <c r="H167">
-        <v>9.354085731506348</v>
+        <v>9.546742010116578</v>
       </c>
       <c r="I167">
-        <v>9.472324339548747</v>
+        <v>9.566097927093505</v>
       </c>
       <c r="J167">
-        <v>10.10274247785706</v>
+        <v>9.779518851402303</v>
       </c>
       <c r="L167">
-        <v>49.60403298925624</v>
+        <v>29.08883270091144</v>
       </c>
       <c r="M167">
-        <v>45.68973809852969</v>
+        <v>38.0068203457536</v>
+      </c>
+      <c r="N167" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6692,37 +6647,40 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>9.280477523803713</v>
+        <v>9.325066566467283</v>
       </c>
       <c r="C168">
-        <v>9.344344139099119</v>
+        <v>9.325066566467283</v>
       </c>
       <c r="D168">
-        <v>9.178340911865234</v>
+        <v>9.107680320739746</v>
       </c>
       <c r="E168">
-        <v>9.32218074798584</v>
+        <v>9.193731307983398</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>3261824</v>
       </c>
       <c r="G168">
-        <v>9.333415561293496</v>
+        <v>9.488490323010872</v>
       </c>
       <c r="H168">
-        <v>9.327067852020264</v>
+        <v>9.519586944580078</v>
       </c>
       <c r="I168">
-        <v>9.462236022949218</v>
+        <v>9.554194672902424</v>
       </c>
       <c r="J168">
-        <v>10.0924039118985</v>
+        <v>9.771760075992781</v>
       </c>
       <c r="L168">
-        <v>51.88615834251978</v>
+        <v>22.64284426641263</v>
       </c>
       <c r="M168">
-        <v>47.27407758887932</v>
+        <v>32.68666810579844</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -6730,37 +6688,40 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>9.32349967956543</v>
+        <v>9.193881988525391</v>
       </c>
       <c r="C169">
-        <v>9.355792999267578</v>
+        <v>9.205655097961426</v>
       </c>
       <c r="D169">
-        <v>9.211586952209473</v>
+        <v>9.036920547485352</v>
       </c>
       <c r="E169">
-        <v>9.235109329223633</v>
+        <v>9.205655097961426</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>4764704</v>
       </c>
       <c r="G169">
-        <v>9.324478631105327</v>
+        <v>9.462778029824557</v>
       </c>
       <c r="H169">
-        <v>9.299263048171998</v>
+        <v>9.501601934432983</v>
       </c>
       <c r="I169">
-        <v>9.448908106486003</v>
+        <v>9.539043140411376</v>
       </c>
       <c r="J169">
-        <v>10.08104901676374</v>
+        <v>9.764261996813557</v>
       </c>
       <c r="L169">
-        <v>47.02943719061732</v>
+        <v>24.36563647525655</v>
       </c>
       <c r="M169">
-        <v>44.44373665984597</v>
+        <v>33.60121365126213</v>
+      </c>
+      <c r="N169" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -6768,37 +6729,40 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>9.236501693725586</v>
+        <v>9.211943626403809</v>
       </c>
       <c r="C170">
-        <v>9.358110427856444</v>
+        <v>9.305561065673828</v>
       </c>
       <c r="D170">
-        <v>9.221685409545898</v>
+        <v>9.188230514526367</v>
       </c>
       <c r="E170">
-        <v>9.346615791320801</v>
+        <v>9.220708847045898</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>8047272</v>
       </c>
       <c r="G170">
-        <v>9.326491100215824</v>
+        <v>9.440771740481042</v>
       </c>
       <c r="H170">
-        <v>9.281187295913696</v>
+        <v>9.48428955078125</v>
       </c>
       <c r="I170">
-        <v>9.437047481536865</v>
+        <v>9.523341623942057</v>
       </c>
       <c r="J170">
-        <v>10.07132142437376</v>
+        <v>9.757062617346437</v>
       </c>
       <c r="L170">
-        <v>53.32395722018158</v>
+        <v>26.68468578713539</v>
       </c>
       <c r="M170">
-        <v>48.68115787051297</v>
+        <v>34.80550131980742</v>
+      </c>
+      <c r="N170" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -6806,37 +6770,40 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>9.344584465026855</v>
+        <v>9.219453811645508</v>
       </c>
       <c r="C171">
-        <v>9.345619201660156</v>
+        <v>9.219453811645508</v>
       </c>
       <c r="D171">
-        <v>9.227073669433594</v>
+        <v>9.029030799865724</v>
       </c>
       <c r="E171">
-        <v>9.239372253417969</v>
+        <v>9.101256370544434</v>
       </c>
       <c r="F171">
-        <v>127696</v>
+        <v>1943968</v>
       </c>
       <c r="G171">
-        <v>9.318571205052383</v>
+        <v>9.409906706850441</v>
       </c>
       <c r="H171">
-        <v>9.255762910842895</v>
+        <v>9.463644504547119</v>
       </c>
       <c r="I171">
-        <v>9.423509947458903</v>
+        <v>9.505565897623699</v>
       </c>
       <c r="J171">
-        <v>10.06030223005647</v>
+        <v>9.748376441892106</v>
       </c>
       <c r="L171">
-        <v>47.24898700619399</v>
+        <v>20.95032930112031</v>
       </c>
       <c r="M171">
-        <v>45.11694166682107</v>
+        <v>30.13487929702867</v>
+      </c>
+      <c r="N171" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -6844,37 +6811,40 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>9.239217758178713</v>
+        <v>9.100364685058594</v>
       </c>
       <c r="C172">
-        <v>9.243171691894531</v>
+        <v>9.154532432556152</v>
       </c>
       <c r="D172">
-        <v>9.165280342102051</v>
+        <v>8.979375839233398</v>
       </c>
       <c r="E172">
-        <v>9.233780860900881</v>
+        <v>9.021742820739746</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2267848</v>
       </c>
       <c r="G172">
-        <v>9.310862991947699</v>
+        <v>9.374619080840377</v>
       </c>
       <c r="H172">
-        <v>9.235877084732056</v>
+        <v>9.443417644500732</v>
       </c>
       <c r="I172">
-        <v>9.408302815755208</v>
+        <v>9.486025937398274</v>
       </c>
       <c r="J172">
-        <v>10.04935492715375</v>
+        <v>9.738752155519228</v>
       </c>
       <c r="L172">
-        <v>46.93535293167356</v>
+        <v>18.04625230494624</v>
       </c>
       <c r="M172">
-        <v>44.93222986508351</v>
+        <v>27.49040897154837</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -6882,37 +6852,40 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>9.234151840209959</v>
+        <v>9.021228790283203</v>
       </c>
       <c r="C173">
-        <v>9.296630859375</v>
+        <v>9.119964599609377</v>
       </c>
       <c r="D173">
-        <v>9.159889221191406</v>
+        <v>8.995935440063477</v>
       </c>
       <c r="E173">
-        <v>9.279187202453612</v>
+        <v>9.102718353271484</v>
       </c>
       <c r="F173">
-        <v>440256</v>
+        <v>24504</v>
       </c>
       <c r="G173">
-        <v>9.307983374720964</v>
+        <v>9.34990083287957</v>
       </c>
       <c r="H173">
-        <v>9.222057628631593</v>
+        <v>9.427436828613281</v>
       </c>
       <c r="I173">
-        <v>9.394531726837158</v>
+        <v>9.473250389099121</v>
       </c>
       <c r="J173">
-        <v>10.03915403013785</v>
+        <v>9.730327866747734</v>
       </c>
       <c r="L173">
-        <v>49.96935513707615</v>
+        <v>29.27776924940049</v>
       </c>
       <c r="M173">
-        <v>46.83574332562932</v>
+        <v>33.85624491747657</v>
+      </c>
+      <c r="N173" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -6920,37 +6893,37 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>9.282016754150391</v>
+        <v>9.09994411468506</v>
       </c>
       <c r="C174">
-        <v>9.305830955505373</v>
+        <v>9.218162536621094</v>
       </c>
       <c r="D174">
-        <v>9.076936721801758</v>
+        <v>9.084152221679688</v>
       </c>
       <c r="E174">
-        <v>9.100631713867188</v>
+        <v>9.139641761779783</v>
       </c>
       <c r="F174">
-        <v>1012480</v>
+        <v>1634536</v>
       </c>
       <c r="G174">
-        <v>9.289133223734256</v>
+        <v>9.330786371870499</v>
       </c>
       <c r="H174">
-        <v>9.197689437866211</v>
+        <v>9.407451438903809</v>
       </c>
       <c r="I174">
-        <v>9.376143964131673</v>
+        <v>9.460569286346436</v>
       </c>
       <c r="J174">
-        <v>10.02672327098195</v>
+        <v>9.722504209728292</v>
       </c>
       <c r="L174">
-        <v>39.88163951175698</v>
+        <v>33.92313109519625</v>
       </c>
       <c r="M174">
-        <v>40.85512147020276</v>
+        <v>36.58994443502408</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -6958,37 +6931,37 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>9.099233627319336</v>
+        <v>9.139582633972168</v>
       </c>
       <c r="C175">
-        <v>9.267899513244627</v>
+        <v>9.20262622833252</v>
       </c>
       <c r="D175">
-        <v>9.063590049743652</v>
+        <v>9.092913627624512</v>
       </c>
       <c r="E175">
-        <v>9.252345085144045</v>
+        <v>9.14174747467041</v>
       </c>
       <c r="F175">
-        <v>1731992</v>
+        <v>2623552</v>
       </c>
       <c r="G175">
-        <v>9.285788847498782</v>
+        <v>9.313601017579581</v>
       </c>
       <c r="H175">
-        <v>9.190278911590577</v>
+        <v>9.388539505004882</v>
       </c>
       <c r="I175">
-        <v>9.361138947804768</v>
+        <v>9.447692648569744</v>
       </c>
       <c r="J175">
-        <v>10.01646660626886</v>
+        <v>9.714812067542095</v>
       </c>
       <c r="L175">
-        <v>49.60618853433709</v>
+        <v>34.20042261935546</v>
       </c>
       <c r="M175">
-        <v>47.04281959951562</v>
+        <v>36.75049104564404</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -6996,37 +6969,37 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>9.253182411193848</v>
+        <v>9.138558387756348</v>
       </c>
       <c r="C176">
-        <v>9.269901275634766</v>
+        <v>9.163999557495115</v>
       </c>
       <c r="D176">
-        <v>9.207052230834959</v>
+        <v>9.020977020263672</v>
       </c>
       <c r="E176">
-        <v>9.224373817443848</v>
+        <v>9.157772064208984</v>
       </c>
       <c r="F176">
-        <v>656952</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>9.280205662948335</v>
+        <v>9.299434749091345</v>
       </c>
       <c r="H176">
-        <v>9.186434507369995</v>
+        <v>9.369427251815797</v>
       </c>
       <c r="I176">
-        <v>9.340881093343098</v>
+        <v>9.429800923665365</v>
       </c>
       <c r="J176">
-        <v>10.00597531105264</v>
+        <v>9.707434054252916</v>
       </c>
       <c r="L176">
-        <v>47.99588710674381</v>
+        <v>36.48245155917837</v>
       </c>
       <c r="M176">
-        <v>46.08551662491653</v>
+        <v>38.03623139375363</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7034,37 +7007,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>9.224714279174805</v>
+        <v>9.157656669616699</v>
       </c>
       <c r="C177">
-        <v>9.338447570800779</v>
+        <v>9.15769100189209</v>
       </c>
       <c r="D177">
-        <v>9.172390937805176</v>
+        <v>9.091179847717283</v>
       </c>
       <c r="E177">
-        <v>9.333211898803713</v>
+        <v>9.134289741516112</v>
       </c>
       <c r="F177">
-        <v>1351744</v>
+        <v>633384</v>
       </c>
       <c r="G177">
-        <v>9.285024411662461</v>
+        <v>9.284421566584506</v>
       </c>
       <c r="H177">
-        <v>9.19675931930542</v>
+        <v>9.347188758850098</v>
       </c>
       <c r="I177">
-        <v>9.321617444356283</v>
+        <v>9.41180346806844</v>
       </c>
       <c r="J177">
-        <v>9.997064537380467</v>
+        <v>9.699842738852428</v>
       </c>
       <c r="L177">
-        <v>54.4662154080202</v>
+        <v>34.50938419483726</v>
       </c>
       <c r="M177">
-        <v>50.3217130278773</v>
+        <v>36.85395495059682</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7072,37 +7045,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>9.333043098449709</v>
+        <v>9.135056495666504</v>
       </c>
       <c r="C178">
-        <v>9.34945011138916</v>
+        <v>9.201916694641112</v>
       </c>
       <c r="D178">
-        <v>9.26341724395752</v>
+        <v>9.12259006500244</v>
       </c>
       <c r="E178">
-        <v>9.275960922241213</v>
+        <v>9.157953262329102</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1760384</v>
       </c>
       <c r="G178">
-        <v>9.284200458078711</v>
+        <v>9.272924448015832</v>
       </c>
       <c r="H178">
-        <v>9.201573324203491</v>
+        <v>9.322974920272827</v>
       </c>
       <c r="I178">
-        <v>9.302064863840739</v>
+        <v>9.392507489522298</v>
       </c>
       <c r="J178">
-        <v>9.987513496120345</v>
+        <v>9.692665394792517</v>
       </c>
       <c r="L178">
-        <v>50.73099247230636</v>
+        <v>38.29280409020469</v>
       </c>
       <c r="M178">
-        <v>48.17734082226945</v>
+        <v>38.91450260960666</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7110,37 +7083,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>9.27546501159668</v>
+        <v>9.156310081481934</v>
       </c>
       <c r="C179">
-        <v>9.55082893371582</v>
+        <v>9.221038818359377</v>
       </c>
       <c r="D179">
-        <v>9.27546501159668</v>
+        <v>9.119885444641112</v>
       </c>
       <c r="E179">
-        <v>9.55082893371582</v>
+        <v>9.211219787597656</v>
       </c>
       <c r="F179">
-        <v>3782872</v>
+        <v>446544</v>
       </c>
       <c r="G179">
-        <v>9.308439410409358</v>
+        <v>9.267314933432361</v>
       </c>
       <c r="H179">
-        <v>9.214638280868531</v>
+        <v>9.300498485565186</v>
       </c>
       <c r="I179">
-        <v>9.2940523147583</v>
+        <v>9.380702972412109</v>
       </c>
       <c r="J179">
-        <v>9.981729594631544</v>
+        <v>9.686288631783315</v>
       </c>
       <c r="L179">
-        <v>64.04799020216456</v>
+        <v>46.16819213456793</v>
       </c>
       <c r="M179">
-        <v>57.53384610006412</v>
+        <v>43.39236944460548</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7148,37 +7121,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>9.550698280334473</v>
+        <v>9.211289405822754</v>
       </c>
       <c r="C180">
-        <v>9.660943031311035</v>
+        <v>9.270637512207031</v>
       </c>
       <c r="D180">
-        <v>9.516347885131836</v>
+        <v>9.156455039978027</v>
       </c>
       <c r="E180">
-        <v>9.660201072692873</v>
+        <v>9.243804931640623</v>
       </c>
       <c r="F180">
-        <v>104912</v>
+        <v>2072152</v>
       </c>
       <c r="G180">
-        <v>9.340417743344222</v>
+        <v>9.265177660542204</v>
       </c>
       <c r="H180">
-        <v>9.242824554443359</v>
+        <v>9.280828237533569</v>
       </c>
       <c r="I180">
-        <v>9.29245465596517</v>
+        <v>9.369931252797445</v>
       </c>
       <c r="J180">
-        <v>9.977470938711825</v>
+        <v>9.680427920523147</v>
       </c>
       <c r="L180">
-        <v>67.92848427794365</v>
+        <v>50.51460513013231</v>
       </c>
       <c r="M180">
-        <v>60.58342611963313</v>
+        <v>46.00017595664564</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7186,37 +7159,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>9.660788536071776</v>
+        <v>9.243362426757812</v>
       </c>
       <c r="C181">
-        <v>9.73947048187256</v>
+        <v>9.247872352600098</v>
       </c>
       <c r="D181">
-        <v>9.660788536071776</v>
+        <v>9.098989486694336</v>
       </c>
       <c r="E181">
-        <v>9.691754341125488</v>
+        <v>9.22376823425293</v>
       </c>
       <c r="F181">
-        <v>2595720</v>
+        <v>955632</v>
       </c>
       <c r="G181">
-        <v>9.37235743405161</v>
+        <v>9.261413167243179</v>
       </c>
       <c r="H181">
-        <v>9.285918712615967</v>
+        <v>9.25949592590332</v>
       </c>
       <c r="I181">
-        <v>9.290584468841553</v>
+        <v>9.36025161743164</v>
       </c>
       <c r="J181">
-        <v>9.97368661291598</v>
+        <v>9.674379447857318</v>
       </c>
       <c r="L181">
-        <v>69.01395995904056</v>
+        <v>47.84243376362166</v>
       </c>
       <c r="M181">
-        <v>61.44365746596242</v>
+        <v>44.63841666377697</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7224,37 +7197,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>9.691736221313477</v>
+        <v>9.225103378295898</v>
       </c>
       <c r="C182">
-        <v>9.721606254577637</v>
+        <v>9.243083953857422</v>
       </c>
       <c r="D182">
-        <v>9.629752159118652</v>
+        <v>9.216585159301758</v>
       </c>
       <c r="E182">
-        <v>9.651294708251951</v>
+        <v>9.217463493347168</v>
       </c>
       <c r="F182">
-        <v>1685976</v>
+        <v>555016</v>
       </c>
       <c r="G182">
-        <v>9.397715368069822</v>
+        <v>9.25741774234354</v>
       </c>
       <c r="H182">
-        <v>9.314784193038941</v>
+        <v>9.235952997207642</v>
       </c>
       <c r="I182">
-        <v>9.291244379679362</v>
+        <v>9.35329106648763</v>
       </c>
       <c r="J182">
-        <v>9.969416521463478</v>
+        <v>9.668327580910164</v>
       </c>
       <c r="L182">
-        <v>65.8012969398105</v>
+        <v>46.96301258752161</v>
       </c>
       <c r="M182">
-        <v>59.64610831859999</v>
+        <v>44.19507300758205</v>
       </c>
     </row>
   </sheetData>
